--- a/Files/cineca_export.xlsx
+++ b/Files/cineca_export.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A11:H291"/>
+  <dimension ref="A11:H290"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -602,12 +602,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Ricercatore</t>
+          <t>Ordinario</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>AMICI Augusto</t>
+          <t>ANGELETTI Mauro</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -618,12 +618,12 @@
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
         <is>
-          <t>BIO/13</t>
+          <t>BIO/10</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>05/F1</t>
+          <t>05/E1</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -636,17 +636,17 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Ordinario</t>
+          <t>Associato</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>ANGELETTI Mauro</t>
+          <t>ANGELONI Cristina</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="D17" t="inlineStr"/>
@@ -662,7 +662,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>SCUOLA DI BIOSCIENZE E MEDICINA VETERINARIA</t>
+          <t>SCUOLA DI SCIENZE DEL FARMACO E DEI PRODOTTI DELLA SALUTE</t>
         </is>
       </c>
       <c r="H17" t="inlineStr"/>
@@ -670,33 +670,33 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Associato</t>
+          <t>Ordinario</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>ANGELONI Cristina</t>
+          <t>ARIETA Giovanni</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr">
         <is>
-          <t>BIO/10</t>
+          <t>IUS/15</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>05/E1</t>
+          <t>12/F1</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>SCUOLA DI SCIENZE DEL FARMACO E DEI PRODOTTI DELLA SALUTE</t>
+          <t>SCUOLA DI GIURISPRUDENZA</t>
         </is>
       </c>
       <c r="H18" t="inlineStr"/>
@@ -704,33 +704,33 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Ordinario</t>
+          <t>Ricercatore</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>ARIETA Giovanni</t>
+          <t>ATTILI Anna Rita</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr">
         <is>
-          <t>IUS/15</t>
+          <t>VET/05</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>12/F1</t>
+          <t>07/H3</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>SCUOLA DI GIURISPRUDENZA</t>
+          <t>SCUOLA DI BIOSCIENZE E MEDICINA VETERINARIA</t>
         </is>
       </c>
       <c r="H19" t="inlineStr"/>
@@ -738,33 +738,33 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Ricercatore</t>
+          <t>Ordinario</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>ATTILI Anna Rita</t>
+          <t>BACCELLI Luca</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr">
         <is>
-          <t>VET/05</t>
+          <t>IUS/20</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>07/H3</t>
+          <t>12/H3</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>SCUOLA DI BIOSCIENZE E MEDICINA VETERINARIA</t>
+          <t>SCUOLA DI GIURISPRUDENZA</t>
         </is>
       </c>
       <c r="H20" t="inlineStr"/>
@@ -772,12 +772,12 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Ordinario</t>
+          <t>Ricercatore</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>BACCELLI Luca</t>
+          <t>BALDUCCI Enrico</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -788,17 +788,17 @@
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr">
         <is>
-          <t>IUS/20</t>
+          <t>BIO/10</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>12/H3</t>
+          <t>05/E1</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>SCUOLA DI GIURISPRUDENZA</t>
+          <t>SCUOLA DI BIOSCIENZE E MEDICINA VETERINARIA</t>
         </is>
       </c>
       <c r="H21" t="inlineStr"/>
@@ -806,33 +806,33 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Ricercatore</t>
+          <t>Associato confermato</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>BALDUCCI Enrico</t>
+          <t>BARBINA Silvia</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr">
         <is>
-          <t>BIO/10</t>
+          <t>MAT/01</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>05/E1</t>
+          <t>01/A1</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>SCUOLA DI BIOSCIENZE E MEDICINA VETERINARIA</t>
+          <t>SCUOLA DI SCIENZE E TECNOLOGIE</t>
         </is>
       </c>
       <c r="H22" t="inlineStr"/>
@@ -840,28 +840,28 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Associato confermato</t>
+          <t>Ordinario</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>BARBINA Silvia</t>
+          <t>BARBONI Luciano</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr">
         <is>
-          <t>MAT/01</t>
+          <t>CHIM/06</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>01/A1</t>
+          <t>03/C1</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -874,33 +874,33 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Ordinario</t>
+          <t>Ricercatore</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>BARBONI Luciano</t>
+          <t>BEGHELLI Daniela</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr">
         <is>
-          <t>CHIM/06</t>
+          <t>VET/08</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>03/C1</t>
+          <t>07/H4</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>SCUOLA DI SCIENZE E TECNOLOGIE</t>
+          <t>SCUOLA DI BIOSCIENZE E MEDICINA VETERINARIA</t>
         </is>
       </c>
       <c r="H24" t="inlineStr"/>
@@ -908,28 +908,28 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Ricercatore</t>
+          <t>Associato</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>BEGHELLI Daniela</t>
+          <t>BELLESI Michele</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr">
         <is>
-          <t>VET/08</t>
+          <t>BIO/09</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>07/H4</t>
+          <t>05/D1</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -942,12 +942,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Associato</t>
+          <t>Ordinario</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>BELLESI Michele</t>
+          <t>BELLINI Federico</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -958,17 +958,17 @@
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr">
         <is>
-          <t>BIO/09</t>
+          <t>ICAR/18</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>05/D1</t>
+          <t>08/E2</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>SCUOLA DI BIOSCIENZE E MEDICINA VETERINARIA</t>
+          <t>SCUOLA DI ARCHITETTURA E DESIGN</t>
         </is>
       </c>
       <c r="H26" t="inlineStr"/>
@@ -976,33 +976,33 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Ordinario</t>
+          <t>Associato confermato</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>BELLINI Federico</t>
+          <t>BERNABEI Maria Simonetta</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr">
         <is>
-          <t>ICAR/18</t>
+          <t>MAT/06</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>08/E2</t>
+          <t>01/A3</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>SCUOLA DI ARCHITETTURA E DESIGN</t>
+          <t>SCUOLA DI SCIENZE E TECNOLOGIE</t>
         </is>
       </c>
       <c r="H27" t="inlineStr"/>
@@ -1015,23 +1015,23 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>BERNABEI Maria Simonetta</t>
+          <t>BERRETTONI Mario</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr">
         <is>
-          <t>MAT/06</t>
+          <t>CHIM/01</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>01/A3</t>
+          <t>03/A1</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -1044,12 +1044,12 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Associato confermato</t>
+          <t>Ordinario</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>BERRETTONI Mario</t>
+          <t>BIANCHI Paolo</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1060,17 +1060,17 @@
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr">
         <is>
-          <t>CHIM/01</t>
+          <t>IUS/08</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>03/A1</t>
+          <t>12/C1</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>SCUOLA DI SCIENZE E TECNOLOGIE</t>
+          <t>SCUOLA DI GIURISPRUDENZA</t>
         </is>
       </c>
       <c r="H29" t="inlineStr"/>
@@ -1078,12 +1078,12 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Ordinario</t>
+          <t>Associato confermato</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>BIANCHI Paolo</t>
+          <t>BISCI Carlo</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1094,17 +1094,17 @@
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr">
         <is>
-          <t>IUS/08</t>
+          <t>GEO/04</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>12/C1</t>
+          <t>04/A3</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>SCUOLA DI GIURISPRUDENZA</t>
+          <t>SCUOLA DI SCIENZE E TECNOLOGIE</t>
         </is>
       </c>
       <c r="H30" t="inlineStr"/>
@@ -1112,12 +1112,12 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Associato confermato</t>
+          <t>Ricercatore a t.d. - t.pieno (art. 24 c.3-b L. 240/10)</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>BISCI Carlo</t>
+          <t>BISCONTINI Giorgio</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1128,17 +1128,17 @@
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr">
         <is>
-          <t>GEO/04</t>
+          <t>IUS/01</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>04/A3</t>
+          <t>12/A1</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>SCUOLA DI SCIENZE E TECNOLOGIE</t>
+          <t>SCUOLA DI BIOSCIENZE E MEDICINA VETERINARIA</t>
         </is>
       </c>
       <c r="H31" t="inlineStr"/>
@@ -1146,12 +1146,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Ricercatore a t.d. - t.pieno (art. 24 c.3-b L. 240/10)</t>
+          <t>Associato</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>BISCONTINI Giorgio</t>
+          <t>BONACCORSO Giuseppe</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1162,17 +1162,17 @@
       <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr">
         <is>
-          <t>IUS/01</t>
+          <t>ICAR/18</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>12/A1</t>
+          <t>08/E2</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>SCUOLA DI BIOSCIENZE E MEDICINA VETERINARIA</t>
+          <t>SCUOLA DI ARCHITETTURA E DESIGN</t>
         </is>
       </c>
       <c r="H32" t="inlineStr"/>
@@ -1185,28 +1185,28 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>BONACCORSO Giuseppe</t>
+          <t>BONACUCINA Giulia</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr">
         <is>
-          <t>ICAR/18</t>
+          <t>CHIM/09</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>08/E2</t>
+          <t>03/D2</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>SCUOLA DI ARCHITETTURA E DESIGN</t>
+          <t>SCUOLA DI SCIENZE DEL FARMACO E DEI PRODOTTI DELLA SALUTE</t>
         </is>
       </c>
       <c r="H33" t="inlineStr"/>
@@ -1214,12 +1214,12 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Associato</t>
+          <t>Ricercatore a t.d. - t.pieno (art. 24 c.3-b L. 240/10)</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>BONACUCINA Giulia</t>
+          <t>BORIA Simonetta</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1230,17 +1230,17 @@
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr">
         <is>
-          <t>CHIM/09</t>
+          <t>ING-IND/14</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>03/D2</t>
+          <t>09/A3</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>SCUOLA DI SCIENZE DEL FARMACO E DEI PRODOTTI DELLA SALUTE</t>
+          <t>SCUOLA DI SCIENZE E TECNOLOGIE</t>
         </is>
       </c>
       <c r="H34" t="inlineStr"/>
@@ -1248,33 +1248,33 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Ricercatore a t.d. - t.pieno (art. 24 c.3-b L. 240/10)</t>
+          <t>Associato</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>BORIA Simonetta</t>
+          <t>BRADINI Luca</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr">
         <is>
-          <t>ING-IND/14</t>
+          <t>ICAR/13</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>09/A3</t>
+          <t>08/C1</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>SCUOLA DI SCIENZE E TECNOLOGIE</t>
+          <t>SCUOLA DI ARCHITETTURA E DESIGN</t>
         </is>
       </c>
       <c r="H35" t="inlineStr"/>
@@ -1282,12 +1282,12 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Associato</t>
+          <t>Associato confermato</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>BRADINI Luca</t>
+          <t>BRAMUCCI Massimo</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1298,17 +1298,17 @@
       <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr">
         <is>
-          <t>ICAR/13</t>
+          <t>BIO/09</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>08/C1</t>
+          <t>05/D1</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>SCUOLA DI ARCHITETTURA E DESIGN</t>
+          <t>SCUOLA DI SCIENZE DEL FARMACO E DEI PRODOTTI DELLA SALUTE</t>
         </is>
       </c>
       <c r="H36" t="inlineStr"/>
@@ -1316,28 +1316,28 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Associato confermato</t>
+          <t>Associato</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>BRAMUCCI Massimo</t>
+          <t>BUCCIONI Michela</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr">
         <is>
-          <t>BIO/09</t>
+          <t>CHIM/08</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>05/D1</t>
+          <t>03/D1</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -1350,33 +1350,33 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Associato</t>
+          <t>Associato confermato</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>BUCCIONI Michela</t>
+          <t>BURINI Alfredo</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr">
         <is>
-          <t>CHIM/08</t>
+          <t>CHIM/03</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>03/D1</t>
+          <t>03/B1</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>SCUOLA DI SCIENZE DEL FARMACO E DEI PRODOTTI DELLA SALUTE</t>
+          <t>SCUOLA DI SCIENZE E TECNOLOGIE</t>
         </is>
       </c>
       <c r="H38" t="inlineStr"/>
@@ -1384,28 +1384,28 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Associato confermato</t>
+          <t>Ricercatore</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>BURINI Alfredo</t>
+          <t>CACCIAGRANO Diletta Romana</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr">
         <is>
-          <t>CHIM/03</t>
+          <t>INF/01</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>03/B1</t>
+          <t>01/B1</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -1418,28 +1418,28 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Ricercatore</t>
+          <t>Ordinario</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>CACCIAGRANO Diletta Romana</t>
+          <t>CALVANESE STRINATI Giancarlo</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr">
         <is>
-          <t>INF/01</t>
+          <t>FIS/03</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>01/B1</t>
+          <t>02/B2</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -1452,12 +1452,12 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Ordinario</t>
+          <t>Associato</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>CALVANESE STRINATI Giancarlo</t>
+          <t>CAMPETELLA Giandiego</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1468,17 +1468,17 @@
       <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr">
         <is>
-          <t>FIS/03</t>
+          <t>BIO/03</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>02/B2</t>
+          <t>05/A1</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>SCUOLA DI SCIENZE E TECNOLOGIE</t>
+          <t>SCUOLA DI BIOSCIENZE E MEDICINA VETERINARIA</t>
         </is>
       </c>
       <c r="H41" t="inlineStr"/>
@@ -1486,12 +1486,12 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Associato</t>
+          <t>Ricercatore a t.d. - t.pieno (art. 24 c.3-b L. 240/10)</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>CAMPETELLA Giandiego</t>
+          <t>CANNELLA Nazzareno</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1502,17 +1502,17 @@
       <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr">
         <is>
-          <t>BIO/03</t>
+          <t>BIO/14</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>05/A1</t>
+          <t>05/G1</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>SCUOLA DI BIOSCIENZE E MEDICINA VETERINARIA</t>
+          <t>SCUOLA DI SCIENZE DEL FARMACO E DEI PRODOTTI DELLA SALUTE</t>
         </is>
       </c>
       <c r="H42" t="inlineStr"/>
@@ -1520,12 +1520,12 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Ricercatore a t.d. - t.pieno (art. 24 c.3-b L. 240/10)</t>
+          <t>Associato confermato</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>CANNELLA Nazzareno</t>
+          <t>CANULLO Roberto</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1536,17 +1536,17 @@
       <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr">
         <is>
-          <t>BIO/14</t>
+          <t>BIO/03</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>05/G1</t>
+          <t>05/A1</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>SCUOLA DI SCIENZE DEL FARMACO E DEI PRODOTTI DELLA SALUTE</t>
+          <t>SCUOLA DI BIOSCIENZE E MEDICINA VETERINARIA</t>
         </is>
       </c>
       <c r="H43" t="inlineStr"/>
@@ -1559,28 +1559,28 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>CANULLO Roberto</t>
+          <t>CAPPELLACCI Loredana</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr">
         <is>
-          <t>BIO/03</t>
+          <t>CHIM/08</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>05/A1</t>
+          <t>03/D1</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>SCUOLA DI BIOSCIENZE E MEDICINA VETERINARIA</t>
+          <t>SCUOLA DI SCIENZE DEL FARMACO E DEI PRODOTTI DELLA SALUTE</t>
         </is>
       </c>
       <c r="H44" t="inlineStr"/>
@@ -1588,23 +1588,23 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Associato confermato</t>
+          <t>Ricercatore a t.d. - t.pieno (art. 24 c.3-b L. 240/10)</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>CAPPELLACCI Loredana</t>
+          <t>CAPRIOLI Giovanni</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr">
         <is>
-          <t>CHIM/08</t>
+          <t>CHIM/10</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -1622,33 +1622,33 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Ricercatore a t.d. - t.pieno (art. 24 c.3-b L. 240/10)</t>
+          <t>Ricercatore</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>CAPRIOLI Giovanni</t>
+          <t>CARDELLINI Anna</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr">
         <is>
-          <t>CHIM/10</t>
+          <t>IUS/18</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>03/D1</t>
+          <t>12/H1</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>SCUOLA DI SCIENZE DEL FARMACO E DEI PRODOTTI DELLA SALUTE</t>
+          <t>SCUOLA DI GIURISPRUDENZA</t>
         </is>
       </c>
       <c r="H46" t="inlineStr"/>
@@ -1656,33 +1656,33 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Ricercatore</t>
+          <t>Ordinario</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>CARDELLINI Anna</t>
+          <t>CARROLL Michael Robert</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr">
         <is>
-          <t>IUS/18</t>
+          <t>GEO/07</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>12/H1</t>
+          <t>04/A1</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>SCUOLA DI GIURISPRUDENZA</t>
+          <t>SCUOLA DI SCIENZE E TECNOLOGIE</t>
         </is>
       </c>
       <c r="H47" t="inlineStr"/>
@@ -1690,12 +1690,12 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Ordinario</t>
+          <t>Associato</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>CARROLL Michael Robert</t>
+          <t>CASALE Francesco</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -1706,17 +1706,17 @@
       <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr">
         <is>
-          <t>GEO/07</t>
+          <t>IUS/04</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>04/A1</t>
+          <t>12/B1</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>SCUOLA DI SCIENZE E TECNOLOGIE</t>
+          <t>SCUOLA DI GIURISPRUDENZA</t>
         </is>
       </c>
       <c r="H48" t="inlineStr"/>
@@ -1729,7 +1729,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>CASALE Francesco</t>
+          <t>CATORCI Andrea</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -1740,17 +1740,17 @@
       <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr">
         <is>
-          <t>IUS/04</t>
+          <t>BIO/03</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>12/B1</t>
+          <t>05/A1</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>SCUOLA DI GIURISPRUDENZA</t>
+          <t>SCUOLA DI BIOSCIENZE E MEDICINA VETERINARIA</t>
         </is>
       </c>
       <c r="H49" t="inlineStr"/>
@@ -1758,28 +1758,28 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Associato</t>
+          <t>Ricercatore a t.d. - t.pieno (art. 24 c.3-b L. 240/10)</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>CATORCI Andrea</t>
+          <t>CECARINI Valentina</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr">
         <is>
-          <t>BIO/03</t>
+          <t>BIO/10</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>05/A1</t>
+          <t>05/E1</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
@@ -1792,12 +1792,12 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Ricercatore a t.d. - t.pieno (art. 24 c.3-b L. 240/10)</t>
+          <t>Associato</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>CECARINI Valentina</t>
+          <t>CENSI Roberta</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -1808,17 +1808,17 @@
       <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr">
         <is>
-          <t>BIO/10</t>
+          <t>CHIM/09</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>05/E1</t>
+          <t>03/D2</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>SCUOLA DI BIOSCIENZE E MEDICINA VETERINARIA</t>
+          <t>SCUOLA DI SCIENZE DEL FARMACO E DEI PRODOTTI DELLA SALUTE</t>
         </is>
       </c>
       <c r="H51" t="inlineStr"/>
@@ -1831,28 +1831,28 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>CENSI Roberta</t>
+          <t>CERQUETELLA Matteo</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr">
         <is>
-          <t>CHIM/09</t>
+          <t>VET/08</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>03/D2</t>
+          <t>07/H4</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>SCUOLA DI SCIENZE DEL FARMACO E DEI PRODOTTI DELLA SALUTE</t>
+          <t>SCUOLA DI BIOSCIENZE E MEDICINA VETERINARIA</t>
         </is>
       </c>
       <c r="H52" t="inlineStr"/>
@@ -1865,7 +1865,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>CERQUETELLA Matteo</t>
+          <t>CESPI Marco</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -1876,17 +1876,17 @@
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr">
         <is>
-          <t>VET/08</t>
+          <t>CHIM/09</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>07/H4</t>
+          <t>03/D2</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>SCUOLA DI BIOSCIENZE E MEDICINA VETERINARIA</t>
+          <t>SCUOLA DI SCIENZE DEL FARMACO E DEI PRODOTTI DELLA SALUTE</t>
         </is>
       </c>
       <c r="H53" t="inlineStr"/>
@@ -1894,12 +1894,12 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Associato</t>
+          <t>Ordinario</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>CESPI Marco</t>
+          <t>CICCOCIOPPO Roberto</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -1910,12 +1910,12 @@
       <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr">
         <is>
-          <t>CHIM/09</t>
+          <t>BIO/14</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>03/D2</t>
+          <t>05/G1</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
@@ -1928,12 +1928,12 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Ordinario</t>
+          <t>Associato</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>CICCOCIOPPO Roberto</t>
+          <t>CIFANI Carlo</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -1962,33 +1962,33 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Associato</t>
+          <t>Ricercatore</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>CIFANI Carlo</t>
+          <t>CIMARELLI Cristina</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="D56" t="inlineStr"/>
       <c r="E56" t="inlineStr">
         <is>
-          <t>BIO/14</t>
+          <t>CHIM/06</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>05/G1</t>
+          <t>03/C1</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>SCUOLA DI SCIENZE DEL FARMACO E DEI PRODOTTI DELLA SALUTE</t>
+          <t>SCUOLA DI SCIENZE E TECNOLOGIE</t>
         </is>
       </c>
       <c r="H56" t="inlineStr"/>
@@ -2001,23 +2001,23 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>CIMARELLI Cristina</t>
+          <t>CINTIOLI Patrizio</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr">
         <is>
-          <t>CHIM/06</t>
+          <t>MAT/01</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>03/C1</t>
+          <t>01/A1</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
@@ -2030,12 +2030,12 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Ricercatore</t>
+          <t>Ordinario</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>CINTIOLI Patrizio</t>
+          <t>CIORRA Giuseppe</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -2046,17 +2046,17 @@
       <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr">
         <is>
-          <t>MAT/01</t>
+          <t>ICAR/14</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>01/A1</t>
+          <t>08/D1</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>SCUOLA DI SCIENZE E TECNOLOGIE</t>
+          <t>SCUOLA DI ARCHITETTURA E DESIGN</t>
         </is>
       </c>
       <c r="H58" t="inlineStr"/>
@@ -2064,28 +2064,28 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Ordinario</t>
+          <t>Ricercatore a t.d. - t.pieno (art. 24 c.3-b L. 240/10)</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>CIORRA Giuseppe</t>
+          <t>COCCI GRIFONI Roberta</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr">
         <is>
-          <t>ICAR/14</t>
+          <t>ICAR/12</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>08/D1</t>
+          <t>08/C1</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
@@ -2098,28 +2098,28 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Ricercatore a t.d. - t.pieno (art. 24 c.3-b L. 240/10)</t>
+          <t>Ordinario</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>COCCI GRIFONI Roberta</t>
+          <t>COCCIA Luigi</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D60" t="inlineStr"/>
       <c r="E60" t="inlineStr">
         <is>
-          <t>ICAR/12</t>
+          <t>ICAR/14</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>08/C1</t>
+          <t>08/D1</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
@@ -2132,12 +2132,12 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Ordinario</t>
+          <t>Ricercatore</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>COCCIA Luigi</t>
+          <t>CONTI Fabio</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2148,17 +2148,17 @@
       <c r="D61" t="inlineStr"/>
       <c r="E61" t="inlineStr">
         <is>
-          <t>ICAR/14</t>
+          <t>BIO/01</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>08/D1</t>
+          <t>05/A1</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>SCUOLA DI ARCHITETTURA E DESIGN</t>
+          <t>SCUOLA DI BIOSCIENZE E MEDICINA VETERINARIA</t>
         </is>
       </c>
       <c r="H61" t="inlineStr"/>
@@ -2171,7 +2171,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>CONTI Fabio</t>
+          <t>CONTI Paolo</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -2182,17 +2182,17 @@
       <c r="D62" t="inlineStr"/>
       <c r="E62" t="inlineStr">
         <is>
-          <t>BIO/01</t>
+          <t>CHIM/01</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>05/A1</t>
+          <t>03/A1</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>SCUOLA DI BIOSCIENZE E MEDICINA VETERINARIA</t>
+          <t>SCUOLA DI SCIENZE E TECNOLOGIE</t>
         </is>
       </c>
       <c r="H62" t="inlineStr"/>
@@ -2200,12 +2200,12 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Ricercatore</t>
+          <t>Ordinario</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>CONTI Paolo</t>
+          <t>CORRADINI Flavio</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -2216,12 +2216,12 @@
       <c r="D63" t="inlineStr"/>
       <c r="E63" t="inlineStr">
         <is>
-          <t>CHIM/01</t>
+          <t>INF/01</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>03/A1</t>
+          <t>01/B1</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
@@ -2239,23 +2239,23 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>CORRADINI Flavio</t>
+          <t>CORRADINI Maria Letizia</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="D64" t="inlineStr"/>
       <c r="E64" t="inlineStr">
         <is>
-          <t>INF/01</t>
+          <t>ING-INF/04</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>01/B1</t>
+          <t>09/G1</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
@@ -2268,28 +2268,28 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Ordinario</t>
+          <t>Ricercatore</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>CORRADINI Maria Letizia</t>
+          <t>CULMONE Rosario</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D65" t="inlineStr"/>
       <c r="E65" t="inlineStr">
         <is>
-          <t>ING-INF/04</t>
+          <t>INF/01</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>09/G1</t>
+          <t>01/B1</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
@@ -2302,12 +2302,12 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Ricercatore</t>
+          <t>Associato confermato</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>CULMONE Rosario</t>
+          <t>CUTERI Vincenzo</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -2318,17 +2318,17 @@
       <c r="D66" t="inlineStr"/>
       <c r="E66" t="inlineStr">
         <is>
-          <t>INF/01</t>
+          <t>VET/05</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>01/B1</t>
+          <t>07/H3</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>SCUOLA DI SCIENZE E TECNOLOGIE</t>
+          <t>SCUOLA DI BIOSCIENZE E MEDICINA VETERINARIA</t>
         </is>
       </c>
       <c r="H66" t="inlineStr"/>
@@ -2336,12 +2336,12 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Associato confermato</t>
+          <t>Ordinario</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>CUTERI Vincenzo</t>
+          <t>D'ANNUNTIIS Marco</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -2352,17 +2352,17 @@
       <c r="D67" t="inlineStr"/>
       <c r="E67" t="inlineStr">
         <is>
-          <t>VET/05</t>
+          <t>ICAR/14</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>07/H3</t>
+          <t>08/D1</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>SCUOLA DI BIOSCIENZE E MEDICINA VETERINARIA</t>
+          <t>SCUOLA DI ARCHITETTURA E DESIGN</t>
         </is>
       </c>
       <c r="H67" t="inlineStr"/>
@@ -2370,28 +2370,28 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Ordinario</t>
+          <t>Associato</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>D'ANNUNTIIS Marco</t>
+          <t>D'ONOFRIO Rosalba</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="D68" t="inlineStr"/>
       <c r="E68" t="inlineStr">
         <is>
-          <t>ICAR/14</t>
+          <t>ICAR/21</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>08/D1</t>
+          <t>08/F1</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
@@ -2409,28 +2409,28 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>D'ONOFRIO Rosalba</t>
+          <t>DAL BEN Diego</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D69" t="inlineStr"/>
       <c r="E69" t="inlineStr">
         <is>
-          <t>ICAR/21</t>
+          <t>CHIM/08</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>08/F1</t>
+          <t>03/D1</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>SCUOLA DI ARCHITETTURA E DESIGN</t>
+          <t>SCUOLA DI SCIENZE DEL FARMACO E DEI PRODOTTI DELLA SALUTE</t>
         </is>
       </c>
       <c r="H69" t="inlineStr"/>
@@ -2438,12 +2438,12 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Associato</t>
+          <t>Ordinario</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>DAL BEN Diego</t>
+          <t>DALL'ASTA Andrea</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -2454,17 +2454,17 @@
       <c r="D70" t="inlineStr"/>
       <c r="E70" t="inlineStr">
         <is>
-          <t>CHIM/08</t>
+          <t>ICAR/09</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>03/D1</t>
+          <t>08/B3</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>SCUOLA DI SCIENZE DEL FARMACO E DEI PRODOTTI DELLA SALUTE</t>
+          <t>SCUOLA DI ARCHITETTURA E DESIGN</t>
         </is>
       </c>
       <c r="H70" t="inlineStr"/>
@@ -2472,33 +2472,33 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Ordinario</t>
+          <t>Ricercatore a t.d. - t.pieno (art. 24 c.3-b L. 240/10)</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>DALL'ASTA Andrea</t>
+          <t>DAMIANI Claudia</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="D71" t="inlineStr"/>
       <c r="E71" t="inlineStr">
         <is>
-          <t>ICAR/09</t>
+          <t>VET/06</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>08/B3</t>
+          <t>07/H3</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>SCUOLA DI ARCHITETTURA E DESIGN</t>
+          <t>SCUOLA DI BIOSCIENZE E MEDICINA VETERINARIA</t>
         </is>
       </c>
       <c r="H71" t="inlineStr"/>
@@ -2506,12 +2506,12 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Ricercatore a t.d. - t.pieno (art. 24 c.3-b L. 240/10)</t>
+          <t>Associato confermato</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>DAMIANI Claudia</t>
+          <t>DE CICCO Maria Cristina</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -2522,17 +2522,17 @@
       <c r="D72" t="inlineStr"/>
       <c r="E72" t="inlineStr">
         <is>
-          <t>VET/06</t>
+          <t>IUS/01</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>07/H3</t>
+          <t>12/A1</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>SCUOLA DI BIOSCIENZE E MEDICINA VETERINARIA</t>
+          <t>SCUOLA DI GIURISPRUDENZA</t>
         </is>
       </c>
       <c r="H72" t="inlineStr"/>
@@ -2540,33 +2540,33 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Associato confermato</t>
+          <t>Ricercatore</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>DE CICCO Maria Cristina</t>
+          <t>DE COSMO Attilio Massimo</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D73" t="inlineStr"/>
       <c r="E73" t="inlineStr">
         <is>
-          <t>IUS/01</t>
+          <t>VET/10</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>12/A1</t>
+          <t>07/H5</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>SCUOLA DI GIURISPRUDENZA</t>
+          <t>SCUOLA DI BIOSCIENZE E MEDICINA VETERINARIA</t>
         </is>
       </c>
       <c r="H73" t="inlineStr"/>
@@ -2574,28 +2574,28 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Ricercatore</t>
+          <t>Ricercatore a t.d. - t.pieno (art. 24 c.3-a L. 240/10)</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>DE COSMO Attilio Massimo</t>
+          <t>DE FELICE Elena</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="D74" t="inlineStr"/>
       <c r="E74" t="inlineStr">
         <is>
-          <t>VET/10</t>
+          <t>VET/01</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>07/H5</t>
+          <t>07/H1</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
@@ -2608,33 +2608,33 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Ricercatore a t.d. - t.pieno (art. 24 c.3-a L. 240/10)</t>
+          <t>Ordinario</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>DE FELICE Elena</t>
+          <t>DE LEONE Renato</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D75" t="inlineStr"/>
       <c r="E75" t="inlineStr">
         <is>
-          <t>VET/01</t>
+          <t>MAT/09</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>07/H1</t>
+          <t>01/A6</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>SCUOLA DI BIOSCIENZE E MEDICINA VETERINARIA</t>
+          <t>SCUOLA DI SCIENZE E TECNOLOGIE</t>
         </is>
       </c>
       <c r="H75" t="inlineStr"/>
@@ -2642,33 +2642,33 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Ordinario</t>
+          <t>Ricercatore a t.d. - t.pieno (art. 24 c.3-a L. 240/10)</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>DE LEONE Renato</t>
+          <t>DE VIVO Luisa</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="D76" t="inlineStr"/>
       <c r="E76" t="inlineStr">
         <is>
-          <t>MAT/09</t>
+          <t>BIO/09</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>01/A6</t>
+          <t>05/D1</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>SCUOLA DI SCIENZE E TECNOLOGIE</t>
+          <t>SCUOLA DI SCIENZE DEL FARMACO E DEI PRODOTTI DELLA SALUTE</t>
         </is>
       </c>
       <c r="H76" t="inlineStr"/>
@@ -2676,28 +2676,28 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Ricercatore a t.d. - t.pieno (art. 24 c.3-a L. 240/10)</t>
+          <t>Associato</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>DE VIVO Luisa</t>
+          <t>DEL BELLO Fabio</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D77" t="inlineStr"/>
       <c r="E77" t="inlineStr">
         <is>
-          <t>BIO/09</t>
+          <t>CHIM/08</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>05/D1</t>
+          <t>03/D1</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
@@ -2710,12 +2710,12 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Associato</t>
+          <t>Ricercatore a t.d. - t.pieno (art. 24 c.3-b L. 240/10)</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>DEL BELLO Fabio</t>
+          <t>DELLA CORTE Alessandro</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -2726,17 +2726,17 @@
       <c r="D78" t="inlineStr"/>
       <c r="E78" t="inlineStr">
         <is>
-          <t>CHIM/08</t>
+          <t>MAT/07</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>03/D1</t>
+          <t>01/A4</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>SCUOLA DI SCIENZE DEL FARMACO E DEI PRODOTTI DELLA SALUTE</t>
+          <t>SCUOLA DI SCIENZE E TECNOLOGIE</t>
         </is>
       </c>
       <c r="H78" t="inlineStr"/>
@@ -2744,33 +2744,33 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Ricercatore a t.d. - t.pieno (art. 24 c.3-b L. 240/10)</t>
+          <t>Associato confermato</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>DELLA CORTE Alessandro</t>
+          <t>DI BITONTO Maria Lucia Antonietta</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="D79" t="inlineStr"/>
       <c r="E79" t="inlineStr">
         <is>
-          <t>MAT/07</t>
+          <t>IUS/16</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>01/A4</t>
+          <t>12/G2</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>SCUOLA DI SCIENZE E TECNOLOGIE</t>
+          <t>SCUOLA DI GIURISPRUDENZA</t>
         </is>
       </c>
       <c r="H79" t="inlineStr"/>
@@ -2778,33 +2778,33 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Associato confermato</t>
+          <t>Associato</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>DI BITONTO Maria Lucia Antonietta</t>
+          <t>DI CELMA Claudio Nicola</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D80" t="inlineStr"/>
       <c r="E80" t="inlineStr">
         <is>
-          <t>IUS/16</t>
+          <t>GEO/02</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>12/G2</t>
+          <t>04/A2</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>SCUOLA DI GIURISPRUDENZA</t>
+          <t>SCUOLA DI SCIENZE E TECNOLOGIE</t>
         </is>
       </c>
       <c r="H80" t="inlineStr"/>
@@ -2812,12 +2812,12 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Associato</t>
+          <t>Ricercatore a t.d. - t.defin. (art. 24 c.3-a L. 240/10)</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>DI CELMA Claudio Nicola</t>
+          <t>DI CERBO Alessandro</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -2828,17 +2828,17 @@
       <c r="D81" t="inlineStr"/>
       <c r="E81" t="inlineStr">
         <is>
-          <t>GEO/02</t>
+          <t>VET/04</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>04/A2</t>
+          <t>07/H2</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>SCUOLA DI SCIENZE E TECNOLOGIE</t>
+          <t>SCUOLA DI BIOSCIENZE E MEDICINA VETERINARIA</t>
         </is>
       </c>
       <c r="H81" t="inlineStr"/>
@@ -2846,12 +2846,12 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Ricercatore a t.d. - t.defin. (art. 24 c.3-a L. 240/10)</t>
+          <t>Ordinario</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>DI CERBO Alessandro</t>
+          <t>DI CICCO Andrea</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -2862,17 +2862,17 @@
       <c r="D82" t="inlineStr"/>
       <c r="E82" t="inlineStr">
         <is>
-          <t>VET/04</t>
+          <t>FIS/01</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>07/H2</t>
+          <t>02/B1</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>SCUOLA DI BIOSCIENZE E MEDICINA VETERINARIA</t>
+          <t>SCUOLA DI SCIENZE E TECNOLOGIE</t>
         </is>
       </c>
       <c r="H82" t="inlineStr"/>
@@ -2880,12 +2880,12 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Ordinario</t>
+          <t>Associato</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>DI CICCO Andrea</t>
+          <t>DI GIUSEPPE Giovanni</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -2914,33 +2914,33 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Associato</t>
+          <t>Associato confermato</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>DI GIUSEPPE Giovanni</t>
+          <t>DI MARTINO Piera</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="D84" t="inlineStr"/>
       <c r="E84" t="inlineStr">
         <is>
-          <t>FIS/01</t>
+          <t>CHIM/09</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>02/B1</t>
+          <t>03/D2</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>SCUOLA DI SCIENZE E TECNOLOGIE</t>
+          <t>SCUOLA DI SCIENZE DEL FARMACO E DEI PRODOTTI DELLA SALUTE</t>
         </is>
       </c>
       <c r="H84" t="inlineStr"/>
@@ -2948,33 +2948,33 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Associato confermato</t>
+          <t>Associato</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>DI MARTINO Piera</t>
+          <t>DI NICOLA Corrado</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D85" t="inlineStr"/>
       <c r="E85" t="inlineStr">
         <is>
-          <t>CHIM/09</t>
+          <t>CHIM/03</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>03/D2</t>
+          <t>03/B1</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>SCUOLA DI SCIENZE DEL FARMACO E DEI PRODOTTI DELLA SALUTE</t>
+          <t>SCUOLA DI SCIENZE E TECNOLOGIE</t>
         </is>
       </c>
       <c r="H85" t="inlineStr"/>
@@ -2982,33 +2982,33 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Associato</t>
+          <t>Ricercatore</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>DI NICOLA Corrado</t>
+          <t>DI PAOLO Cinzia</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="D86" t="inlineStr"/>
       <c r="E86" t="inlineStr">
         <is>
-          <t>CHIM/03</t>
+          <t>IUS/13</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>03/B1</t>
+          <t>12/E1</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>SCUOLA DI SCIENZE E TECNOLOGIE</t>
+          <t>SCUOLA DI GIURISPRUDENZA</t>
         </is>
       </c>
       <c r="H86" t="inlineStr"/>
@@ -3021,28 +3021,28 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>DI PAOLO Cinzia</t>
+          <t>DINI Fabrizio</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D87" t="inlineStr"/>
       <c r="E87" t="inlineStr">
         <is>
-          <t>IUS/13</t>
+          <t>VET/09</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>12/E1</t>
+          <t>07/H5</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>SCUOLA DI GIURISPRUDENZA</t>
+          <t>SCUOLA DI BIOSCIENZE E MEDICINA VETERINARIA</t>
         </is>
       </c>
       <c r="H87" t="inlineStr"/>
@@ -3050,12 +3050,12 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Ricercatore</t>
+          <t>Associato</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>DINI Fabrizio</t>
+          <t>DOTI Gerardo</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -3066,17 +3066,17 @@
       <c r="D88" t="inlineStr"/>
       <c r="E88" t="inlineStr">
         <is>
-          <t>VET/09</t>
+          <t>ICAR/18</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>07/H5</t>
+          <t>08/E2</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>SCUOLA DI BIOSCIENZE E MEDICINA VETERINARIA</t>
+          <t>SCUOLA DI ARCHITETTURA E DESIGN</t>
         </is>
       </c>
       <c r="H88" t="inlineStr"/>
@@ -3084,33 +3084,33 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Associato</t>
+          <t>Ricercatore</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>DOTI Gerardo</t>
+          <t>EGIDI Nadaniela</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="D89" t="inlineStr"/>
       <c r="E89" t="inlineStr">
         <is>
-          <t>ICAR/18</t>
+          <t>MAT/08</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>08/E2</t>
+          <t>01/A5</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>SCUOLA DI ARCHITETTURA E DESIGN</t>
+          <t>SCUOLA DI SCIENZE E TECNOLOGIE</t>
         </is>
       </c>
       <c r="H89" t="inlineStr"/>
@@ -3118,12 +3118,12 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Ricercatore</t>
+          <t>Associato confermato</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>EGIDI Nadaniela</t>
+          <t>ELEUTERI Anna Maria</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -3134,17 +3134,17 @@
       <c r="D90" t="inlineStr"/>
       <c r="E90" t="inlineStr">
         <is>
-          <t>MAT/08</t>
+          <t>BIO/12</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>01/A5</t>
+          <t>05/E3</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>SCUOLA DI SCIENZE E TECNOLOGIE</t>
+          <t>SCUOLA DI BIOSCIENZE E MEDICINA VETERINARIA</t>
         </is>
       </c>
       <c r="H90" t="inlineStr"/>
@@ -3152,12 +3152,12 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Associato confermato</t>
+          <t>Ricercatore</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>ELEUTERI Anna Maria</t>
+          <t>EMILI Anna Rita</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -3168,17 +3168,17 @@
       <c r="D91" t="inlineStr"/>
       <c r="E91" t="inlineStr">
         <is>
-          <t>BIO/12</t>
+          <t>ICAR/14</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>05/E3</t>
+          <t>08/D1</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>SCUOLA DI BIOSCIENZE E MEDICINA VETERINARIA</t>
+          <t>SCUOLA DI ARCHITETTURA E DESIGN</t>
         </is>
       </c>
       <c r="H91" t="inlineStr"/>
@@ -3186,33 +3186,33 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Ricercatore</t>
+          <t>Associato confermato</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>EMILI Anna Rita</t>
+          <t>ESPOSITO Roberto</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D92" t="inlineStr"/>
       <c r="E92" t="inlineStr">
         <is>
-          <t>ICAR/14</t>
+          <t>IUS/12</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>08/D1</t>
+          <t>12/D2</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>SCUOLA DI ARCHITETTURA E DESIGN</t>
+          <t>SCUOLA DI GIURISPRUDENZA</t>
         </is>
       </c>
       <c r="H92" t="inlineStr"/>
@@ -3220,12 +3220,12 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Associato confermato</t>
+          <t>Ordinario</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>ESPOSITO Roberto</t>
+          <t>EVANGELISTA Rinaldo</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -3236,12 +3236,12 @@
       <c r="D93" t="inlineStr"/>
       <c r="E93" t="inlineStr">
         <is>
-          <t>IUS/12</t>
+          <t>SECS-P/02</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>12/D2</t>
+          <t>13/A2</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
@@ -3254,12 +3254,12 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Ordinario</t>
+          <t>Associato</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>EVANGELISTA Rinaldo</t>
+          <t>FABBRETTI Attilio</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -3270,17 +3270,17 @@
       <c r="D94" t="inlineStr"/>
       <c r="E94" t="inlineStr">
         <is>
-          <t>SECS-P/02</t>
+          <t>BIO/11</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>13/A2</t>
+          <t>05/E2</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>SCUOLA DI GIURISPRUDENZA</t>
+          <t>SCUOLA DI BIOSCIENZE E MEDICINA VETERINARIA</t>
         </is>
       </c>
       <c r="H94" t="inlineStr"/>
@@ -3288,12 +3288,12 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Associato</t>
+          <t>Ricercatore</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>FABBRETTI Attilio</t>
+          <t>FALCONI Maurizio</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -3304,12 +3304,12 @@
       <c r="D95" t="inlineStr"/>
       <c r="E95" t="inlineStr">
         <is>
-          <t>BIO/11</t>
+          <t>BIO/18</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>05/E2</t>
+          <t>05/I1</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
@@ -3327,7 +3327,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>FALCONI Maurizio</t>
+          <t>FANTUZ Francesco</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -3338,12 +3338,12 @@
       <c r="D96" t="inlineStr"/>
       <c r="E96" t="inlineStr">
         <is>
-          <t>BIO/18</t>
+          <t>AGR/18</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>05/I1</t>
+          <t>07/G1</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
@@ -3356,12 +3356,12 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Ricercatore</t>
+          <t>Associato confermato</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>FANTUZ Francesco</t>
+          <t>FARABOLLINI Piero</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -3372,17 +3372,17 @@
       <c r="D97" t="inlineStr"/>
       <c r="E97" t="inlineStr">
         <is>
-          <t>AGR/18</t>
+          <t>GEO/04</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>07/G1</t>
+          <t>04/A3</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>SCUOLA DI BIOSCIENZE E MEDICINA VETERINARIA</t>
+          <t>SCUOLA DI SCIENZE E TECNOLOGIE</t>
         </is>
       </c>
       <c r="H97" t="inlineStr"/>
@@ -3390,28 +3390,28 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Associato confermato</t>
+          <t>Associato</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>FARABOLLINI Piero</t>
+          <t>FATONE Lorella</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="D98" t="inlineStr"/>
       <c r="E98" t="inlineStr">
         <is>
-          <t>GEO/04</t>
+          <t>MAT/08</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>04/A3</t>
+          <t>01/A5</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
@@ -3424,33 +3424,33 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Associato</t>
+          <t>Ordinario</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>FATONE Lorella</t>
+          <t>FAVALE Rocco</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D99" t="inlineStr"/>
       <c r="E99" t="inlineStr">
         <is>
-          <t>MAT/08</t>
+          <t>IUS/02</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>01/A5</t>
+          <t>12/E2</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>SCUOLA DI SCIENZE E TECNOLOGIE</t>
+          <t>SCUOLA DI GIURISPRUDENZA</t>
         </is>
       </c>
       <c r="H99" t="inlineStr"/>
@@ -3463,7 +3463,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>FAVALE Rocco</t>
+          <t>FAVIA Guido</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -3474,17 +3474,17 @@
       <c r="D100" t="inlineStr"/>
       <c r="E100" t="inlineStr">
         <is>
-          <t>IUS/02</t>
+          <t>VET/06</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>12/E2</t>
+          <t>07/H3</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>SCUOLA DI GIURISPRUDENZA</t>
+          <t>SCUOLA DI BIOSCIENZE E MEDICINA VETERINARIA</t>
         </is>
       </c>
       <c r="H100" t="inlineStr"/>
@@ -3492,12 +3492,12 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Ordinario</t>
+          <t>Associato confermato</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>FAVIA Guido</t>
+          <t>FEDE Fabio</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -3508,17 +3508,17 @@
       <c r="D101" t="inlineStr"/>
       <c r="E101" t="inlineStr">
         <is>
-          <t>VET/06</t>
+          <t>IUS/21</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>07/H3</t>
+          <t>12/E2</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>SCUOLA DI BIOSCIENZE E MEDICINA VETERINARIA</t>
+          <t>SCUOLA DI GIURISPRUDENZA</t>
         </is>
       </c>
       <c r="H101" t="inlineStr"/>
@@ -3531,7 +3531,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>FEDE Fabio</t>
+          <t>FEDELI Piergiorgio</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -3542,12 +3542,12 @@
       <c r="D102" t="inlineStr"/>
       <c r="E102" t="inlineStr">
         <is>
-          <t>IUS/21</t>
+          <t>MED/43</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>12/E2</t>
+          <t>06/M2</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
@@ -3560,12 +3560,12 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Associato confermato</t>
+          <t>Ricercatore</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>FEDELI Piergiorgio</t>
+          <t>FELICI Alberto</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -3576,17 +3576,17 @@
       <c r="D103" t="inlineStr"/>
       <c r="E103" t="inlineStr">
         <is>
-          <t>MED/43</t>
+          <t>BIO/10</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>06/M2</t>
+          <t>05/E1</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>SCUOLA DI GIURISPRUDENZA</t>
+          <t>SCUOLA DI BIOSCIENZE E MEDICINA VETERINARIA</t>
         </is>
       </c>
       <c r="H103" t="inlineStr"/>
@@ -3599,7 +3599,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>FELICI Alberto</t>
+          <t>FERRARO Stefano</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -3610,17 +3610,17 @@
       <c r="D104" t="inlineStr"/>
       <c r="E104" t="inlineStr">
         <is>
-          <t>BIO/10</t>
+          <t>CHIM/01</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>05/E1</t>
+          <t>03/A1</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>SCUOLA DI BIOSCIENZE E MEDICINA VETERINARIA</t>
+          <t>SCUOLA DI SCIENZE E TECNOLOGIE</t>
         </is>
       </c>
       <c r="H104" t="inlineStr"/>
@@ -3628,28 +3628,28 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Ricercatore</t>
+          <t>Associato</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>FERRARO Stefano</t>
+          <t>FIORINI Dennis</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="D105" t="inlineStr"/>
       <c r="E105" t="inlineStr">
         <is>
-          <t>CHIM/01</t>
+          <t>CHIM/10</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>03/A1</t>
+          <t>03/D1</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
@@ -3662,33 +3662,33 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Associato</t>
+          <t>Ricercatore</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>FIORINI Dennis</t>
+          <t>FRUGANTI Alessandro</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D106" t="inlineStr"/>
       <c r="E106" t="inlineStr">
         <is>
-          <t>CHIM/10</t>
+          <t>VET/08</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>03/D1</t>
+          <t>07/H4</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>SCUOLA DI SCIENZE E TECNOLOGIE</t>
+          <t>SCUOLA DI BIOSCIENZE E MEDICINA VETERINARIA</t>
         </is>
       </c>
       <c r="H106" t="inlineStr"/>
@@ -3696,33 +3696,33 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Ricercatore</t>
+          <t>Associato confermato</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>FRUGANTI Alessandro</t>
+          <t>GABBIANELLI Rosita</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="D107" t="inlineStr"/>
       <c r="E107" t="inlineStr">
         <is>
-          <t>VET/08</t>
+          <t>BIO/10</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>07/H4</t>
+          <t>05/E1</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>SCUOLA DI BIOSCIENZE E MEDICINA VETERINARIA</t>
+          <t>SCUOLA DI SCIENZE DEL FARMACO E DEI PRODOTTI DELLA SALUTE</t>
         </is>
       </c>
       <c r="H107" t="inlineStr"/>
@@ -3735,7 +3735,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>GABBIANELLI Rosita</t>
+          <t>GABRIELLI Maria Gabriella</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -3746,17 +3746,17 @@
       <c r="D108" t="inlineStr"/>
       <c r="E108" t="inlineStr">
         <is>
-          <t>BIO/10</t>
+          <t>BIO/06</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>05/E1</t>
+          <t>05/B2</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>SCUOLA DI SCIENZE DEL FARMACO E DEI PRODOTTI DELLA SALUTE</t>
+          <t>SCUOLA DI BIOSCIENZE E MEDICINA VETERINARIA</t>
         </is>
       </c>
       <c r="H108" t="inlineStr"/>
@@ -3764,12 +3764,12 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Associato confermato</t>
+          <t>Ricercatore a t.d. - t.pieno (art. 24 c.3-b L. 240/10)</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>GABRIELLI Maria Gabriella</t>
+          <t>GABRIELLI Serena</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -3780,17 +3780,17 @@
       <c r="D109" t="inlineStr"/>
       <c r="E109" t="inlineStr">
         <is>
-          <t>BIO/06</t>
+          <t>CHIM/06</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>05/B2</t>
+          <t>03/C1</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>SCUOLA DI BIOSCIENZE E MEDICINA VETERINARIA</t>
+          <t>SCUOLA DI SCIENZE E TECNOLOGIE</t>
         </is>
       </c>
       <c r="H109" t="inlineStr"/>
@@ -3798,28 +3798,28 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Ricercatore a t.d. - t.pieno (art. 24 c.3-b L. 240/10)</t>
+          <t>Ricercatore</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>GABRIELLI Serena</t>
+          <t>GAGLIARDI Roberto</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D110" t="inlineStr"/>
       <c r="E110" t="inlineStr">
         <is>
-          <t>CHIM/06</t>
+          <t>ING-INF/05</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>03/C1</t>
+          <t>09/H1</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
@@ -3837,23 +3837,23 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>GAGLIARDI Roberto</t>
+          <t>GALASSI Rossana</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="D111" t="inlineStr"/>
       <c r="E111" t="inlineStr">
         <is>
-          <t>ING-INF/05</t>
+          <t>CHIM/03</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>09/H1</t>
+          <t>03/B1</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
@@ -3866,33 +3866,33 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Ricercatore</t>
+          <t>Associato</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>GALASSI Rossana</t>
+          <t>GALOFARO Luca</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D112" t="inlineStr"/>
       <c r="E112" t="inlineStr">
         <is>
-          <t>CHIM/03</t>
+          <t>ICAR/16</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>03/B1</t>
+          <t>08/D1</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>SCUOLA DI SCIENZE E TECNOLOGIE</t>
+          <t>SCUOLA DI ARCHITETTURA E DESIGN</t>
         </is>
       </c>
       <c r="H112" t="inlineStr"/>
@@ -3900,33 +3900,33 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Associato</t>
+          <t>Associato confermato</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>GALOFARO Luca</t>
+          <t>GASPERINI Maria Pia</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="D113" t="inlineStr"/>
       <c r="E113" t="inlineStr">
         <is>
-          <t>ICAR/16</t>
+          <t>IUS/15</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>08/D1</t>
+          <t>12/F1</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>SCUOLA DI ARCHITETTURA E DESIGN</t>
+          <t>SCUOLA DI GIURISPRUDENZA</t>
         </is>
       </c>
       <c r="H113" t="inlineStr"/>
@@ -3934,12 +3934,12 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Associato confermato</t>
+          <t>Ricercatore a t.d. - t.pieno (art. 24 c.3-b L. 240/10)</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>GASPERINI Maria Pia</t>
+          <t>GAVAZZA Alessandra</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -3950,17 +3950,17 @@
       <c r="D114" t="inlineStr"/>
       <c r="E114" t="inlineStr">
         <is>
-          <t>IUS/15</t>
+          <t>VET/08</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>12/F1</t>
+          <t>07/H4</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>SCUOLA DI GIURISPRUDENZA</t>
+          <t>SCUOLA DI BIOSCIENZE E MEDICINA VETERINARIA</t>
         </is>
       </c>
       <c r="H114" t="inlineStr"/>
@@ -3968,12 +3968,12 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Ricercatore a t.d. - t.pieno (art. 24 c.3-b L. 240/10)</t>
+          <t>Ricercatore</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>GAVAZZA Alessandra</t>
+          <t>GENTILUCCI Catia Eliana</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -3984,17 +3984,17 @@
       <c r="D115" t="inlineStr"/>
       <c r="E115" t="inlineStr">
         <is>
-          <t>VET/08</t>
+          <t>SECS-P/04</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>07/H4</t>
+          <t>13/C1</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>SCUOLA DI BIOSCIENZE E MEDICINA VETERINARIA</t>
+          <t>SCUOLA DI GIURISPRUDENZA</t>
         </is>
       </c>
       <c r="H115" t="inlineStr"/>
@@ -4002,33 +4002,33 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Ricercatore</t>
+          <t>Ordinario</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>GENTILUCCI Catia Eliana</t>
+          <t>GIAMBO' Roberto</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D116" t="inlineStr"/>
       <c r="E116" t="inlineStr">
         <is>
-          <t>SECS-P/04</t>
+          <t>MAT/05</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>13/C1</t>
+          <t>01/A3</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>SCUOLA DI GIURISPRUDENZA</t>
+          <t>SCUOLA DI SCIENZE E TECNOLOGIE</t>
         </is>
       </c>
       <c r="H116" t="inlineStr"/>
@@ -4041,7 +4041,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>GIAMBO' Roberto</t>
+          <t>GIANNONI Fabio</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -4070,17 +4070,17 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Ordinario</t>
+          <t>Ricercatore</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>GIANNONI Fabio</t>
+          <t>GIANNOTTI Cristina</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="D118" t="inlineStr"/>
@@ -4109,28 +4109,28 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>GIANNOTTI Cristina</t>
+          <t>GIORGIONI Gianfabio</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D119" t="inlineStr"/>
       <c r="E119" t="inlineStr">
         <is>
-          <t>MAT/05</t>
+          <t>CHIM/08</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>01/A3</t>
+          <t>03/D1</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>SCUOLA DI SCIENZE E TECNOLOGIE</t>
+          <t>SCUOLA DI SCIENZE DEL FARMACO E DEI PRODOTTI DELLA SALUTE</t>
         </is>
       </c>
       <c r="H119" t="inlineStr"/>
@@ -4143,7 +4143,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>GIORGIONI Gianfabio</t>
+          <t>GIOVAGNOLI Marco</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -4154,17 +4154,17 @@
       <c r="D120" t="inlineStr"/>
       <c r="E120" t="inlineStr">
         <is>
-          <t>CHIM/08</t>
+          <t>SPS/09</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>03/D1</t>
+          <t>14/D1</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>SCUOLA DI SCIENZE DEL FARMACO E DEI PRODOTTI DELLA SALUTE</t>
+          <t>SCUOLA DI GIURISPRUDENZA</t>
         </is>
       </c>
       <c r="H120" t="inlineStr"/>
@@ -4177,28 +4177,28 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>GIOVAGNOLI Marco</t>
+          <t>GIOVANNETTI Rita</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="D121" t="inlineStr"/>
       <c r="E121" t="inlineStr">
         <is>
-          <t>SPS/09</t>
+          <t>CHIM/12</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>14/D1</t>
+          <t>03/A1</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>SCUOLA DI GIURISPRUDENZA</t>
+          <t>SCUOLA DI SCIENZE E TECNOLOGIE</t>
         </is>
       </c>
       <c r="H121" t="inlineStr"/>
@@ -4206,33 +4206,33 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Ricercatore</t>
+          <t>Associato</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>GIOVANNETTI Rita</t>
+          <t>GIOVANNINI Paolo</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D122" t="inlineStr"/>
       <c r="E122" t="inlineStr">
         <is>
-          <t>CHIM/12</t>
+          <t>M-STO/04</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>03/A1</t>
+          <t>11/A3</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>SCUOLA DI SCIENZE E TECNOLOGIE</t>
+          <t>SCUOLA DI GIURISPRUDENZA</t>
         </is>
       </c>
       <c r="H122" t="inlineStr"/>
@@ -4245,7 +4245,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>GIOVANNINI Paolo</t>
+          <t>GIULI Gabriele</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -4256,17 +4256,17 @@
       <c r="D123" t="inlineStr"/>
       <c r="E123" t="inlineStr">
         <is>
-          <t>M-STO/04</t>
+          <t>GEO/06</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>11/A3</t>
+          <t>04/A1</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>SCUOLA DI GIURISPRUDENZA</t>
+          <t>SCUOLA DI SCIENZE E TECNOLOGIE</t>
         </is>
       </c>
       <c r="H123" t="inlineStr"/>
@@ -4274,33 +4274,33 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Associato</t>
+          <t>Ricercatore</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>GIULI Gabriele</t>
+          <t>GIULIODORI Anna Maria</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="D124" t="inlineStr"/>
       <c r="E124" t="inlineStr">
         <is>
-          <t>GEO/06</t>
+          <t>BIO/18</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>04/A1</t>
+          <t>05/I1</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>SCUOLA DI SCIENZE E TECNOLOGIE</t>
+          <t>SCUOLA DI BIOSCIENZE E MEDICINA VETERINARIA</t>
         </is>
       </c>
       <c r="H124" t="inlineStr"/>
@@ -4308,12 +4308,12 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Ricercatore</t>
+          <t>Ricercatore a t.d. - t.pieno (art. 24 c.3-b L. 240/10)</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>GIULIODORI Anna Maria</t>
+          <t>GIUSTI Laura</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -4324,17 +4324,17 @@
       <c r="D125" t="inlineStr"/>
       <c r="E125" t="inlineStr">
         <is>
-          <t>BIO/18</t>
+          <t>BIO/10</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>05/I1</t>
+          <t>05/E1</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>SCUOLA DI BIOSCIENZE E MEDICINA VETERINARIA</t>
+          <t>SCUOLA DI SCIENZE DEL FARMACO E DEI PRODOTTI DELLA SALUTE</t>
         </is>
       </c>
       <c r="H125" t="inlineStr"/>
@@ -4342,12 +4342,12 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Ricercatore a t.d. - t.pieno (art. 24 c.3-b L. 240/10)</t>
+          <t>Associato confermato</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>GIUSTI Laura</t>
+          <t>GRAPPASONNI Iolanda</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -4358,12 +4358,12 @@
       <c r="D126" t="inlineStr"/>
       <c r="E126" t="inlineStr">
         <is>
-          <t>BIO/10</t>
+          <t>MED/42</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>05/E1</t>
+          <t>06/M1</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
@@ -4381,28 +4381,28 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>GRAPPASONNI Iolanda</t>
+          <t>GRIFANTINI Fabio Maria</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D127" t="inlineStr"/>
       <c r="E127" t="inlineStr">
         <is>
-          <t>MED/42</t>
+          <t>IUS/16</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>06/M1</t>
+          <t>12/G2</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>SCUOLA DI SCIENZE DEL FARMACO E DEI PRODOTTI DELLA SALUTE</t>
+          <t>SCUOLA DI GIURISPRUDENZA</t>
         </is>
       </c>
       <c r="H127" t="inlineStr"/>
@@ -4410,28 +4410,28 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Associato confermato</t>
+          <t>Associato</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>GRIFANTINI Fabio Maria</t>
+          <t>GUARNIER Tatiana</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="D128" t="inlineStr"/>
       <c r="E128" t="inlineStr">
         <is>
-          <t>IUS/16</t>
+          <t>IUS/08</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>12/G2</t>
+          <t>12/C1</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
@@ -4444,33 +4444,33 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Associato</t>
+          <t>Associato confermato</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>GUARNIER Tatiana</t>
+          <t>GUNNELLA Roberto</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D129" t="inlineStr"/>
       <c r="E129" t="inlineStr">
         <is>
-          <t>IUS/08</t>
+          <t>FIS/03</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>12/C1</t>
+          <t>02/B1</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>SCUOLA DI GIURISPRUDENZA</t>
+          <t>SCUOLA DI SCIENZE E TECNOLOGIE</t>
         </is>
       </c>
       <c r="H129" t="inlineStr"/>
@@ -4478,33 +4478,33 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Associato confermato</t>
+          <t>Associato</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>GUNNELLA Roberto</t>
+          <t>HABLUETZEL Annette Caroline</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="D130" t="inlineStr"/>
       <c r="E130" t="inlineStr">
         <is>
-          <t>FIS/03</t>
+          <t>VET/06</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>02/B1</t>
+          <t>07/H3</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>SCUOLA DI SCIENZE E TECNOLOGIE</t>
+          <t>SCUOLA DI SCIENZE DEL FARMACO E DEI PRODOTTI DELLA SALUTE</t>
         </is>
       </c>
       <c r="H130" t="inlineStr"/>
@@ -4517,7 +4517,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>HABLUETZEL Annette Caroline</t>
+          <t>INVERNIZZI Maria Chiara</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -4528,17 +4528,17 @@
       <c r="D131" t="inlineStr"/>
       <c r="E131" t="inlineStr">
         <is>
-          <t>VET/06</t>
+          <t>GEO/03</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>07/H3</t>
+          <t>04/A2</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>SCUOLA DI SCIENZE DEL FARMACO E DEI PRODOTTI DELLA SALUTE</t>
+          <t>SCUOLA DI SCIENZE E TECNOLOGIE</t>
         </is>
       </c>
       <c r="H131" t="inlineStr"/>
@@ -4546,28 +4546,28 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Associato</t>
+          <t>Ordinario</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>INVERNIZZI Maria Chiara</t>
+          <t>ISOLA Stefano</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D132" t="inlineStr"/>
       <c r="E132" t="inlineStr">
         <is>
-          <t>GEO/03</t>
+          <t>MAT/07</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>04/A2</t>
+          <t>01/A4</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
@@ -4580,28 +4580,28 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Ordinario</t>
+          <t>Associato</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>ISOLA Stefano</t>
+          <t>L'INNOCENTE Sonia</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="D133" t="inlineStr"/>
       <c r="E133" t="inlineStr">
         <is>
-          <t>MAT/07</t>
+          <t>MAT/01</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>01/A4</t>
+          <t>01/A1</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
@@ -4619,7 +4619,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>L'INNOCENTE Sonia</t>
+          <t>LA TERZA Antonietta</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -4630,17 +4630,17 @@
       <c r="D134" t="inlineStr"/>
       <c r="E134" t="inlineStr">
         <is>
-          <t>MAT/01</t>
+          <t>BIO/05</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>01/A1</t>
+          <t>05/B1</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>SCUOLA DI SCIENZE E TECNOLOGIE</t>
+          <t>SCUOLA DI BIOSCIENZE E MEDICINA VETERINARIA</t>
         </is>
       </c>
       <c r="H134" t="inlineStr"/>
@@ -4653,7 +4653,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>LA TERZA Antonietta</t>
+          <t>LAMBERTUCCI Catia</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -4664,17 +4664,17 @@
       <c r="D135" t="inlineStr"/>
       <c r="E135" t="inlineStr">
         <is>
-          <t>BIO/05</t>
+          <t>CHIM/08</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>05/B1</t>
+          <t>03/D1</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>SCUOLA DI BIOSCIENZE E MEDICINA VETERINARIA</t>
+          <t>SCUOLA DI SCIENZE DEL FARMACO E DEI PRODOTTI DELLA SALUTE</t>
         </is>
       </c>
       <c r="H135" t="inlineStr"/>
@@ -4682,12 +4682,12 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Associato</t>
+          <t>Ordinario</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>LAMBERTUCCI Catia</t>
+          <t>LATINI Carlotta</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -4698,17 +4698,17 @@
       <c r="D136" t="inlineStr"/>
       <c r="E136" t="inlineStr">
         <is>
-          <t>CHIM/08</t>
+          <t>IUS/19</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>03/D1</t>
+          <t>12/H2</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>SCUOLA DI SCIENZE DEL FARMACO E DEI PRODOTTI DELLA SALUTE</t>
+          <t>SCUOLA DI GIURISPRUDENZA</t>
         </is>
       </c>
       <c r="H136" t="inlineStr"/>
@@ -4716,12 +4716,12 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Ordinario</t>
+          <t>Ricercatore</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>LATINI Carlotta</t>
+          <t>LATINO Agostina</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -4732,12 +4732,12 @@
       <c r="D137" t="inlineStr"/>
       <c r="E137" t="inlineStr">
         <is>
-          <t>IUS/19</t>
+          <t>IUS/13</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>12/H2</t>
+          <t>12/E1</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
@@ -4750,33 +4750,33 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Ricercatore</t>
+          <t>Associato</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>LATINO Agostina</t>
+          <t>LAUS Fulvio</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D138" t="inlineStr"/>
       <c r="E138" t="inlineStr">
         <is>
-          <t>IUS/13</t>
+          <t>VET/08</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>12/E1</t>
+          <t>07/H4</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>SCUOLA DI GIURISPRUDENZA</t>
+          <t>SCUOLA DI BIOSCIENZE E MEDICINA VETERINARIA</t>
         </is>
       </c>
       <c r="H138" t="inlineStr"/>
@@ -4784,12 +4784,12 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Associato</t>
+          <t>Ordinario</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>LAUS Fulvio</t>
+          <t>LEONI Graziano</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -4800,17 +4800,17 @@
       <c r="D139" t="inlineStr"/>
       <c r="E139" t="inlineStr">
         <is>
-          <t>VET/08</t>
+          <t>ICAR/09</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>07/H4</t>
+          <t>08/B3</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>SCUOLA DI BIOSCIENZE E MEDICINA VETERINARIA</t>
+          <t>SCUOLA DI ARCHITETTURA E DESIGN</t>
         </is>
       </c>
       <c r="H139" t="inlineStr"/>
@@ -4818,12 +4818,12 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Ordinario</t>
+          <t>Associato</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>LEONI Graziano</t>
+          <t>LORETI Michele</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -4834,17 +4834,17 @@
       <c r="D140" t="inlineStr"/>
       <c r="E140" t="inlineStr">
         <is>
-          <t>ICAR/09</t>
+          <t>INF/01</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>08/B3</t>
+          <t>01/B1</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>SCUOLA DI ARCHITETTURA E DESIGN</t>
+          <t>SCUOLA DI SCIENZE E TECNOLOGIE</t>
         </is>
       </c>
       <c r="H140" t="inlineStr"/>
@@ -4852,33 +4852,33 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Associato</t>
+          <t>Ordinario</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>LORETI Michele</t>
+          <t>LOSCHI Anna Rita</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="D141" t="inlineStr"/>
       <c r="E141" t="inlineStr">
         <is>
-          <t>INF/01</t>
+          <t>VET/04</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>01/B1</t>
+          <t>07/H2</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>SCUOLA DI SCIENZE E TECNOLOGIE</t>
+          <t>SCUOLA DI BIOSCIENZE E MEDICINA VETERINARIA</t>
         </is>
       </c>
       <c r="H141" t="inlineStr"/>
@@ -4891,28 +4891,28 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>LOSCHI Anna Rita</t>
+          <t>LOSCO Giuseppe</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D142" t="inlineStr"/>
       <c r="E142" t="inlineStr">
         <is>
-          <t>VET/04</t>
+          <t>ICAR/13</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>07/H2</t>
+          <t>08/C1</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>SCUOLA DI BIOSCIENZE E MEDICINA VETERINARIA</t>
+          <t>SCUOLA DI ARCHITETTURA E DESIGN</t>
         </is>
       </c>
       <c r="H142" t="inlineStr"/>
@@ -4920,12 +4920,12 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Ordinario</t>
+          <t>Ricercatore</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>LOSCO Giuseppe</t>
+          <t>LUCHERONI Carlo</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -4936,17 +4936,17 @@
       <c r="D143" t="inlineStr"/>
       <c r="E143" t="inlineStr">
         <is>
-          <t>ICAR/13</t>
+          <t>SECS-S/06</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>08/C1</t>
+          <t>13/D4</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>SCUOLA DI ARCHITETTURA E DESIGN</t>
+          <t>SCUOLA DI SCIENZE E TECNOLOGIE</t>
         </is>
       </c>
       <c r="H143" t="inlineStr"/>
@@ -4959,28 +4959,28 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>LUCHERONI Carlo</t>
+          <t>LUCIANI Stefania</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="D144" t="inlineStr"/>
       <c r="E144" t="inlineStr">
         <is>
-          <t>SECS-S/06</t>
+          <t>BIO/08</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>13/D4</t>
+          <t>05/B1</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>SCUOLA DI SCIENZE E TECNOLOGIE</t>
+          <t>SCUOLA DI BIOSCIENZE E MEDICINA VETERINARIA</t>
         </is>
       </c>
       <c r="H144" t="inlineStr"/>
@@ -4993,28 +4993,28 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>LUCIANI Stefania</t>
+          <t>LUPACCHINI Andrea</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D145" t="inlineStr"/>
       <c r="E145" t="inlineStr">
         <is>
-          <t>BIO/08</t>
+          <t>ICAR/13</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>05/B1</t>
+          <t>08/C1</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>SCUOLA DI BIOSCIENZE E MEDICINA VETERINARIA</t>
+          <t>SCUOLA DI ARCHITETTURA E DESIGN</t>
         </is>
       </c>
       <c r="H145" t="inlineStr"/>
@@ -5022,12 +5022,12 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Ricercatore</t>
+          <t>Associato confermato</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>LUPACCHINI Andrea</t>
+          <t>LUPIDI Giulio</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -5038,17 +5038,17 @@
       <c r="D146" t="inlineStr"/>
       <c r="E146" t="inlineStr">
         <is>
-          <t>ICAR/13</t>
+          <t>BIO/10</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>08/C1</t>
+          <t>05/E1</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>SCUOLA DI ARCHITETTURA E DESIGN</t>
+          <t>SCUOLA DI SCIENZE DEL FARMACO E DEI PRODOTTI DELLA SALUTE</t>
         </is>
       </c>
       <c r="H146" t="inlineStr"/>
@@ -5056,33 +5056,33 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Associato confermato</t>
+          <t>Ricercatore a t.d. - t.pieno (art. 24 c.3-b L. 240/10)</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>LUPIDI Giulio</t>
+          <t>MAGAGNINI Marta</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="D147" t="inlineStr"/>
       <c r="E147" t="inlineStr">
         <is>
-          <t>BIO/10</t>
+          <t>ICAR/17</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>05/E1</t>
+          <t>08/E1</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>SCUOLA DI SCIENZE DEL FARMACO E DEI PRODOTTI DELLA SALUTE</t>
+          <t>SCUOLA DI ARCHITETTURA E DESIGN</t>
         </is>
       </c>
       <c r="H147" t="inlineStr"/>
@@ -5090,33 +5090,33 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Ricercatore a t.d. - t.pieno (art. 24 c.3-b L. 240/10)</t>
+          <t>Associato</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>MAGAGNINI Marta</t>
+          <t>MAGGI Filippo</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D148" t="inlineStr"/>
       <c r="E148" t="inlineStr">
         <is>
-          <t>ICAR/17</t>
+          <t>BIO/15</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>08/E1</t>
+          <t>05/A1</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>SCUOLA DI ARCHITETTURA E DESIGN</t>
+          <t>SCUOLA DI SCIENZE DEL FARMACO E DEI PRODOTTI DELLA SALUTE</t>
         </is>
       </c>
       <c r="H148" t="inlineStr"/>
@@ -5129,7 +5129,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>MAGGI Filippo</t>
+          <t>MAGI Gian Enrico</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -5140,17 +5140,17 @@
       <c r="D149" t="inlineStr"/>
       <c r="E149" t="inlineStr">
         <is>
-          <t>BIO/15</t>
+          <t>VET/03</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>05/A1</t>
+          <t>07/H2</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>SCUOLA DI SCIENZE DEL FARMACO E DEI PRODOTTI DELLA SALUTE</t>
+          <t>SCUOLA DI BIOSCIENZE E MEDICINA VETERINARIA</t>
         </is>
       </c>
       <c r="H149" t="inlineStr"/>
@@ -5158,12 +5158,12 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Associato</t>
+          <t>Ricercatore a t.d. - t.pieno (art. 24 c.3-a L. 240/10)</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>MAGI Gian Enrico</t>
+          <t>MAGNI Antonio</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -5174,17 +5174,17 @@
       <c r="D150" t="inlineStr"/>
       <c r="E150" t="inlineStr">
         <is>
-          <t>VET/03</t>
+          <t>IUS/01</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>07/H2</t>
+          <t>12/A1</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>SCUOLA DI BIOSCIENZE E MEDICINA VETERINARIA</t>
+          <t>SCUOLA DI GIURISPRUDENZA</t>
         </is>
       </c>
       <c r="H150" t="inlineStr"/>
@@ -5192,12 +5192,12 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Ricercatore a t.d. - t.pieno (art. 24 c.3-a L. 240/10)</t>
+          <t>Associato confermato</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>MAGNI Antonio</t>
+          <t>MALFATTI Alessandro</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -5208,17 +5208,17 @@
       <c r="D151" t="inlineStr"/>
       <c r="E151" t="inlineStr">
         <is>
-          <t>IUS/01</t>
+          <t>VET/02</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>12/A1</t>
+          <t>07/H1</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>SCUOLA DI GIURISPRUDENZA</t>
+          <t>SCUOLA DI BIOSCIENZE E MEDICINA VETERINARIA</t>
         </is>
       </c>
       <c r="H151" t="inlineStr"/>
@@ -5226,12 +5226,12 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Associato confermato</t>
+          <t>Ricercatore</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>MALFATTI Alessandro</t>
+          <t>MANCINI Giorgio</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -5242,17 +5242,17 @@
       <c r="D152" t="inlineStr"/>
       <c r="E152" t="inlineStr">
         <is>
-          <t>VET/02</t>
+          <t>FIS/01</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>07/H1</t>
+          <t>02/B1</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>SCUOLA DI BIOSCIENZE E MEDICINA VETERINARIA</t>
+          <t>SCUOLA DI SCIENZE E TECNOLOGIE</t>
         </is>
       </c>
       <c r="H152" t="inlineStr"/>
@@ -5260,12 +5260,12 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Ricercatore</t>
+          <t>Associato confermato</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>MANCINI Giorgio</t>
+          <t>MANCINI Stefano</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -5276,12 +5276,12 @@
       <c r="D153" t="inlineStr"/>
       <c r="E153" t="inlineStr">
         <is>
-          <t>FIS/01</t>
+          <t>FIS/02</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>02/B1</t>
+          <t>02/A2</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
@@ -5294,33 +5294,33 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Associato confermato</t>
+          <t>Associato</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>MANCINI Stefano</t>
+          <t>MANTOVANI Maria Paola</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="D154" t="inlineStr"/>
       <c r="E154" t="inlineStr">
         <is>
-          <t>FIS/02</t>
+          <t>IUS/02</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>02/A2</t>
+          <t>12/E2</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>SCUOLA DI SCIENZE E TECNOLOGIE</t>
+          <t>SCUOLA DI GIURISPRUDENZA</t>
         </is>
       </c>
       <c r="H154" t="inlineStr"/>
@@ -5328,33 +5328,33 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Associato</t>
+          <t>Associato confermato</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>MANTOVANI Maria Paola</t>
+          <t>MAPONI Pierluigi</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D155" t="inlineStr"/>
       <c r="E155" t="inlineStr">
         <is>
-          <t>IUS/02</t>
+          <t>MAT/08</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>12/E2</t>
+          <t>01/A5</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>SCUOLA DI GIURISPRUDENZA</t>
+          <t>SCUOLA DI SCIENZE E TECNOLOGIE</t>
         </is>
       </c>
       <c r="H155" t="inlineStr"/>
@@ -5362,12 +5362,12 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Associato confermato</t>
+          <t>Ordinario</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>MAPONI Pierluigi</t>
+          <t>MARCANTONI Enrico</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -5378,12 +5378,12 @@
       <c r="D156" t="inlineStr"/>
       <c r="E156" t="inlineStr">
         <is>
-          <t>MAT/08</t>
+          <t>CHIM/06</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>01/A5</t>
+          <t>03/C1</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
@@ -5396,12 +5396,12 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Ordinario</t>
+          <t>Ricercatore</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>MARCANTONI Enrico</t>
+          <t>MARCANTONI Fausto</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -5412,12 +5412,12 @@
       <c r="D157" t="inlineStr"/>
       <c r="E157" t="inlineStr">
         <is>
-          <t>CHIM/06</t>
+          <t>ING-INF/05</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>03/C1</t>
+          <t>09/H1</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
@@ -5430,12 +5430,12 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Ricercatore</t>
+          <t>Ricercatore a t.d. - t.pieno (art. 24 c.3-a L. 240/10)</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>MARCANTONI Fausto</t>
+          <t>MARCHEGIANI Andrea</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -5446,17 +5446,17 @@
       <c r="D158" t="inlineStr"/>
       <c r="E158" t="inlineStr">
         <is>
-          <t>ING-INF/05</t>
+          <t>VET/08</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>09/H1</t>
+          <t>07/H4</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>SCUOLA DI SCIENZE E TECNOLOGIE</t>
+          <t>SCUOLA DI BIOSCIENZE E MEDICINA VETERINARIA</t>
         </is>
       </c>
       <c r="H158" t="inlineStr"/>
@@ -5464,12 +5464,12 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Ricercatore a t.d. - t.pieno (art. 24 c.3-a L. 240/10)</t>
+          <t>Ordinario</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>MARCHEGIANI Andrea</t>
+          <t>MARCHESONI Fabio</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -5480,17 +5480,17 @@
       <c r="D159" t="inlineStr"/>
       <c r="E159" t="inlineStr">
         <is>
-          <t>VET/08</t>
+          <t>FIS/03</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>07/H4</t>
+          <t>02/B2</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>SCUOLA DI BIOSCIENZE E MEDICINA VETERINARIA</t>
+          <t>SCUOLA DI SCIENZE E TECNOLOGIE</t>
         </is>
       </c>
       <c r="H159" t="inlineStr"/>
@@ -5503,7 +5503,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>MARCHESONI Fabio</t>
+          <t>MARCHETTI Fabio</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -5514,12 +5514,12 @@
       <c r="D160" t="inlineStr"/>
       <c r="E160" t="inlineStr">
         <is>
-          <t>FIS/03</t>
+          <t>CHIM/03</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>02/B2</t>
+          <t>03/B1</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
@@ -5532,12 +5532,12 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Ordinario</t>
+          <t>Associato confermato</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>MARCHETTI Fabio</t>
+          <t>MARCHETTI Luigi</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -5548,17 +5548,17 @@
       <c r="D161" t="inlineStr"/>
       <c r="E161" t="inlineStr">
         <is>
-          <t>CHIM/03</t>
+          <t>BIO/06</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>03/B1</t>
+          <t>05/B2</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>SCUOLA DI SCIENZE E TECNOLOGIE</t>
+          <t>SCUOLA DI BIOSCIENZE E MEDICINA VETERINARIA</t>
         </is>
       </c>
       <c r="H161" t="inlineStr"/>
@@ -5566,28 +5566,28 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Associato confermato</t>
+          <t>Associato</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>MARCHETTI Luigi</t>
+          <t>MARCHINI Cristina</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="D162" t="inlineStr"/>
       <c r="E162" t="inlineStr">
         <is>
-          <t>BIO/06</t>
+          <t>BIO/13</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>05/B2</t>
+          <t>05/F1</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
@@ -5600,12 +5600,12 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Associato</t>
+          <t>Ricercatore</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>MARCHINI Cristina</t>
+          <t>MARINI Carlotta</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -5616,12 +5616,12 @@
       <c r="D163" t="inlineStr"/>
       <c r="E163" t="inlineStr">
         <is>
-          <t>BIO/13</t>
+          <t>VET/07</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>05/F1</t>
+          <t>07/H4</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
@@ -5634,33 +5634,33 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Ricercatore</t>
+          <t>Associato confermato</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>MARINI Carlotta</t>
+          <t>MARINI BETTOLO MARCONI Umberto</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D164" t="inlineStr"/>
       <c r="E164" t="inlineStr">
         <is>
-          <t>VET/07</t>
+          <t>FIS/03</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>07/H4</t>
+          <t>02/B2</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>SCUOLA DI BIOSCIENZE E MEDICINA VETERINARIA</t>
+          <t>SCUOLA DI SCIENZE E TECNOLOGIE</t>
         </is>
       </c>
       <c r="H164" t="inlineStr"/>
@@ -5668,33 +5668,33 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Associato confermato</t>
+          <t>Ricercatore</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>MARINI BETTOLO MARCONI Umberto</t>
+          <t>MARIOTTI Francesca</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="D165" t="inlineStr"/>
       <c r="E165" t="inlineStr">
         <is>
-          <t>FIS/03</t>
+          <t>VET/03</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>02/B2</t>
+          <t>07/H2</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>SCUOLA DI SCIENZE E TECNOLOGIE</t>
+          <t>SCUOLA DI BIOSCIENZE E MEDICINA VETERINARIA</t>
         </is>
       </c>
       <c r="H165" t="inlineStr"/>
@@ -5707,7 +5707,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>MARIOTTI Francesca</t>
+          <t>MAROTA Isolina</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -5718,12 +5718,12 @@
       <c r="D166" t="inlineStr"/>
       <c r="E166" t="inlineStr">
         <is>
-          <t>VET/03</t>
+          <t>BIO/08</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>07/H2</t>
+          <t>05/B1</t>
         </is>
       </c>
       <c r="G166" t="inlineStr">
@@ -5736,12 +5736,12 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Ricercatore</t>
+          <t>Associato confermato</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>MAROTA Isolina</t>
+          <t>MARUCCI Gabriella</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -5752,17 +5752,17 @@
       <c r="D167" t="inlineStr"/>
       <c r="E167" t="inlineStr">
         <is>
-          <t>BIO/08</t>
+          <t>CHIM/08</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>05/B1</t>
+          <t>03/D1</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>SCUOLA DI BIOSCIENZE E MEDICINA VETERINARIA</t>
+          <t>SCUOLA DI SCIENZE DEL FARMACO E DEI PRODOTTI DELLA SALUTE</t>
         </is>
       </c>
       <c r="H167" t="inlineStr"/>
@@ -5770,12 +5770,12 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Associato confermato</t>
+          <t>Ricercatore</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>MARUCCI Gabriella</t>
+          <t>MARZOLI Irene</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -5786,17 +5786,17 @@
       <c r="D168" t="inlineStr"/>
       <c r="E168" t="inlineStr">
         <is>
-          <t>CHIM/08</t>
+          <t>FIS/03</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>03/D1</t>
+          <t>02/B2</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>SCUOLA DI SCIENZE DEL FARMACO E DEI PRODOTTI DELLA SALUTE</t>
+          <t>SCUOLA DI SCIENZE E TECNOLOGIE</t>
         </is>
       </c>
       <c r="H168" t="inlineStr"/>
@@ -5804,33 +5804,33 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Ricercatore</t>
+          <t>Ricercatore a t.d. - t.pieno (art. 24 c.3-a L. 240/10)</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>MARZOLI Irene</t>
+          <t>MASCITTI Jacopo</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D169" t="inlineStr"/>
       <c r="E169" t="inlineStr">
         <is>
-          <t>FIS/03</t>
+          <t>ICAR/13</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>02/B2</t>
+          <t>08/C1</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>SCUOLA DI SCIENZE E TECNOLOGIE</t>
+          <t>SCUOLA DI ARCHITETTURA E DESIGN</t>
         </is>
       </c>
       <c r="H169" t="inlineStr"/>
@@ -5838,12 +5838,12 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Ricercatore a t.d. - t.pieno (art. 24 c.3-a L. 240/10)</t>
+          <t>Associato</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>MASCITTI Jacopo</t>
+          <t>MASTRIGLI Gabriele</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -5854,12 +5854,12 @@
       <c r="D170" t="inlineStr"/>
       <c r="E170" t="inlineStr">
         <is>
-          <t>ICAR/13</t>
+          <t>ICAR/14</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>08/C1</t>
+          <t>08/D1</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
@@ -5877,7 +5877,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>MASTRIGLI Gabriele</t>
+          <t>MATERAZZI Marco</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -5888,17 +5888,17 @@
       <c r="D171" t="inlineStr"/>
       <c r="E171" t="inlineStr">
         <is>
-          <t>ICAR/14</t>
+          <t>GEO/04</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>08/D1</t>
+          <t>04/A3</t>
         </is>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>SCUOLA DI ARCHITETTURA E DESIGN</t>
+          <t>SCUOLA DI SCIENZE E TECNOLOGIE</t>
         </is>
       </c>
       <c r="H171" t="inlineStr"/>
@@ -5906,12 +5906,12 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Associato</t>
+          <t>Ordinario</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>MATERAZZI Marco</t>
+          <t>MAZZOLI Stefano</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -5922,12 +5922,12 @@
       <c r="D172" t="inlineStr"/>
       <c r="E172" t="inlineStr">
         <is>
-          <t>GEO/04</t>
+          <t>GEO/03</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>04/A3</t>
+          <t>04/A2</t>
         </is>
       </c>
       <c r="G172" t="inlineStr">
@@ -5940,12 +5940,12 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Ordinario</t>
+          <t>Associato confermato</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>MAZZOLI Stefano</t>
+          <t>MERCOGLIANO Felice</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -5956,17 +5956,17 @@
       <c r="D173" t="inlineStr"/>
       <c r="E173" t="inlineStr">
         <is>
-          <t>GEO/03</t>
+          <t>IUS/18</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>04/A2</t>
+          <t>12/H1</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>SCUOLA DI SCIENZE E TECNOLOGIE</t>
+          <t>SCUOLA DI GIURISPRUDENZA</t>
         </is>
       </c>
       <c r="H173" t="inlineStr"/>
@@ -5974,33 +5974,33 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Associato confermato</t>
+          <t>Ordinario</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>MERCOGLIANO Felice</t>
+          <t>MERELLI Emanuela</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="D174" t="inlineStr"/>
       <c r="E174" t="inlineStr">
         <is>
-          <t>IUS/18</t>
+          <t>INF/01</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>12/H1</t>
+          <t>01/B1</t>
         </is>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>SCUOLA DI GIURISPRUDENZA</t>
+          <t>SCUOLA DI SCIENZE E TECNOLOGIE</t>
         </is>
       </c>
       <c r="H174" t="inlineStr"/>
@@ -6008,12 +6008,12 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Ordinario</t>
+          <t>Associato</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>MERELLI Emanuela</t>
+          <t>MERLI Antonella</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -6024,17 +6024,17 @@
       <c r="D175" t="inlineStr"/>
       <c r="E175" t="inlineStr">
         <is>
-          <t>INF/01</t>
+          <t>IUS/17</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>01/B1</t>
+          <t>12/G1</t>
         </is>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>SCUOLA DI SCIENZE E TECNOLOGIE</t>
+          <t>SCUOLA DI GIURISPRUDENZA</t>
         </is>
       </c>
       <c r="H175" t="inlineStr"/>
@@ -6042,12 +6042,12 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Associato</t>
+          <t>Ricercatore</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>MERLI Antonella</t>
+          <t>MESCHINI Alessandra</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -6058,17 +6058,17 @@
       <c r="D176" t="inlineStr"/>
       <c r="E176" t="inlineStr">
         <is>
-          <t>IUS/17</t>
+          <t>ICAR/17</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>12/G1</t>
+          <t>08/E1</t>
         </is>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>SCUOLA DI GIURISPRUDENZA</t>
+          <t>SCUOLA DI ARCHITETTURA E DESIGN</t>
         </is>
       </c>
       <c r="H176" t="inlineStr"/>
@@ -6081,28 +6081,28 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>MESCHINI Alessandra</t>
+          <t>MIANO Antonino</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D177" t="inlineStr"/>
       <c r="E177" t="inlineStr">
         <is>
-          <t>ICAR/17</t>
+          <t>BIO/09</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>08/E1</t>
+          <t>05/D1</t>
         </is>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>SCUOLA DI ARCHITETTURA E DESIGN</t>
+          <t>SCUOLA DI BIOSCIENZE E MEDICINA VETERINARIA</t>
         </is>
       </c>
       <c r="H177" t="inlineStr"/>
@@ -6110,28 +6110,28 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Ricercatore</t>
+          <t>Ordinario</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>MIANO Antonino</t>
+          <t>MICELI Cristina</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="D178" t="inlineStr"/>
       <c r="E178" t="inlineStr">
         <is>
-          <t>BIO/09</t>
+          <t>BIO/06</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>05/D1</t>
+          <t>05/B2</t>
         </is>
       </c>
       <c r="G178" t="inlineStr">
@@ -6144,12 +6144,12 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Ordinario</t>
+          <t>Ricercatore a t.d. - t.pieno (art. 24 c.3-b L. 240/10)</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>MICELI Cristina</t>
+          <t>MICIONI DI BONAVENTURA Maria Vittoria</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -6160,17 +6160,17 @@
       <c r="D179" t="inlineStr"/>
       <c r="E179" t="inlineStr">
         <is>
-          <t>BIO/06</t>
+          <t>BIO/14</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>05/B2</t>
+          <t>05/G1</t>
         </is>
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>SCUOLA DI BIOSCIENZE E MEDICINA VETERINARIA</t>
+          <t>SCUOLA DI SCIENZE DEL FARMACO E DEI PRODOTTI DELLA SALUTE</t>
         </is>
       </c>
       <c r="H179" t="inlineStr"/>
@@ -6178,33 +6178,33 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Ricercatore a t.d. - t.pieno (art. 24 c.3-b L. 240/10)</t>
+          <t>Ricercatore a t.d. - t.pieno (art. 24 c.3-a L. 240/10)</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>MICIONI DI BONAVENTURA Maria Vittoria</t>
+          <t>MORICHETTA Andrea</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D180" t="inlineStr"/>
       <c r="E180" t="inlineStr">
         <is>
-          <t>BIO/14</t>
+          <t>INF/01</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>05/G1</t>
+          <t>01/B1</t>
         </is>
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>SCUOLA DI SCIENZE DEL FARMACO E DEI PRODOTTI DELLA SALUTE</t>
+          <t>SCUOLA DI SCIENZE E TECNOLOGIE</t>
         </is>
       </c>
       <c r="H180" t="inlineStr"/>
@@ -6217,7 +6217,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>MORICHETTA Andrea</t>
+          <t>MORICI Michele</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -6228,17 +6228,17 @@
       <c r="D181" t="inlineStr"/>
       <c r="E181" t="inlineStr">
         <is>
-          <t>INF/01</t>
+          <t>ICAR/09</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>01/B1</t>
+          <t>08/B3</t>
         </is>
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>SCUOLA DI SCIENZE E TECNOLOGIE</t>
+          <t>SCUOLA DI ARCHITETTURA E DESIGN</t>
         </is>
       </c>
       <c r="H181" t="inlineStr"/>
@@ -6246,12 +6246,12 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Ricercatore a t.d. - t.pieno (art. 24 c.3-a L. 240/10)</t>
+          <t>Associato</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>MORICI Michele</t>
+          <t>MOSCONI Gilberto</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -6262,17 +6262,17 @@
       <c r="D182" t="inlineStr"/>
       <c r="E182" t="inlineStr">
         <is>
-          <t>ICAR/09</t>
+          <t>BIO/06</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>08/B3</t>
+          <t>05/B2</t>
         </is>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>SCUOLA DI ARCHITETTURA E DESIGN</t>
+          <t>SCUOLA DI BIOSCIENZE E MEDICINA VETERINARIA</t>
         </is>
       </c>
       <c r="H182" t="inlineStr"/>
@@ -6285,7 +6285,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>MOSCONI Gilberto</t>
+          <t>MOSTARDA Leonardo</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -6296,17 +6296,17 @@
       <c r="D183" t="inlineStr"/>
       <c r="E183" t="inlineStr">
         <is>
-          <t>BIO/06</t>
+          <t>INF/01</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>05/B2</t>
+          <t>01/B1</t>
         </is>
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>SCUOLA DI BIOSCIENZE E MEDICINA VETERINARIA</t>
+          <t>SCUOLA DI SCIENZE E TECNOLOGIE</t>
         </is>
       </c>
       <c r="H183" t="inlineStr"/>
@@ -6319,7 +6319,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>MOSTARDA Leonardo</t>
+          <t>NABISSI Massimo</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -6330,17 +6330,17 @@
       <c r="D184" t="inlineStr"/>
       <c r="E184" t="inlineStr">
         <is>
-          <t>INF/01</t>
+          <t>MED/46</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>01/B1</t>
+          <t>06/N1</t>
         </is>
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>SCUOLA DI SCIENZE E TECNOLOGIE</t>
+          <t>SCUOLA DI SCIENZE DEL FARMACO E DEI PRODOTTI DELLA SALUTE</t>
         </is>
       </c>
       <c r="H184" t="inlineStr"/>
@@ -6353,7 +6353,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>NABISSI Massimo</t>
+          <t>NAPOLIONI Valerio</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -6364,17 +6364,17 @@
       <c r="D185" t="inlineStr"/>
       <c r="E185" t="inlineStr">
         <is>
-          <t>MED/46</t>
+          <t>BIO/11</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>06/N1</t>
+          <t>05/E2</t>
         </is>
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>SCUOLA DI SCIENZE DEL FARMACO E DEI PRODOTTI DELLA SALUTE</t>
+          <t>SCUOLA DI BIOSCIENZE E MEDICINA VETERINARIA</t>
         </is>
       </c>
       <c r="H185" t="inlineStr"/>
@@ -6387,28 +6387,28 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>NAPOLIONI Valerio</t>
+          <t>NASUTI Cinzia Carla</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="D186" t="inlineStr"/>
       <c r="E186" t="inlineStr">
         <is>
-          <t>BIO/11</t>
+          <t>BIO/14</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>05/E2</t>
+          <t>05/G1</t>
         </is>
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>SCUOLA DI BIOSCIENZE E MEDICINA VETERINARIA</t>
+          <t>SCUOLA DI SCIENZE DEL FARMACO E DEI PRODOTTI DELLA SALUTE</t>
         </is>
       </c>
       <c r="H186" t="inlineStr"/>
@@ -6421,28 +6421,28 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>NASUTI Cinzia Carla</t>
+          <t>NOBILI Francesco</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D187" t="inlineStr"/>
       <c r="E187" t="inlineStr">
         <is>
-          <t>BIO/14</t>
+          <t>CHIM/02</t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>05/G1</t>
+          <t>03/A2</t>
         </is>
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>SCUOLA DI SCIENZE DEL FARMACO E DEI PRODOTTI DELLA SALUTE</t>
+          <t>SCUOLA DI SCIENZE E TECNOLOGIE</t>
         </is>
       </c>
       <c r="H187" t="inlineStr"/>
@@ -6450,12 +6450,12 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Associato</t>
+          <t>Ricercatore</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>NOBILI Francesco</t>
+          <t>OPPEDISANO Federico Orfeo</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -6466,17 +6466,17 @@
       <c r="D188" t="inlineStr"/>
       <c r="E188" t="inlineStr">
         <is>
-          <t>CHIM/02</t>
+          <t>ICAR/13</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>03/A2</t>
+          <t>08/C1</t>
         </is>
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>SCUOLA DI SCIENZE E TECNOLOGIE</t>
+          <t>SCUOLA DI ARCHITETTURA E DESIGN</t>
         </is>
       </c>
       <c r="H188" t="inlineStr"/>
@@ -6484,23 +6484,23 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Ricercatore</t>
+          <t>Associato confermato</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>OPPEDISANO Federico Orfeo</t>
+          <t>OTTONE Maria Federica</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="D189" t="inlineStr"/>
       <c r="E189" t="inlineStr">
         <is>
-          <t>ICAR/13</t>
+          <t>ICAR/12</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
@@ -6518,33 +6518,33 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Associato confermato</t>
+          <t>Associato</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>OTTONE Maria Federica</t>
+          <t>PALERMO Francesco Alessandro</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D190" t="inlineStr"/>
       <c r="E190" t="inlineStr">
         <is>
-          <t>ICAR/12</t>
+          <t>BIO/06</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>08/C1</t>
+          <t>05/B2</t>
         </is>
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>SCUOLA DI ARCHITETTURA E DESIGN</t>
+          <t>SCUOLA DI BIOSCIENZE E MEDICINA VETERINARIA</t>
         </is>
       </c>
       <c r="H190" t="inlineStr"/>
@@ -6557,7 +6557,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>PALERMO Francesco Alessandro</t>
+          <t>PALMIERI Alessandro</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -6568,17 +6568,17 @@
       <c r="D191" t="inlineStr"/>
       <c r="E191" t="inlineStr">
         <is>
-          <t>BIO/06</t>
+          <t>CHIM/06</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>05/B2</t>
+          <t>03/C1</t>
         </is>
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>SCUOLA DI BIOSCIENZE E MEDICINA VETERINARIA</t>
+          <t>SCUOLA DI SCIENZE E TECNOLOGIE</t>
         </is>
       </c>
       <c r="H191" t="inlineStr"/>
@@ -6586,12 +6586,12 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Associato</t>
+          <t>Ordinario</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>PALMIERI Alessandro</t>
+          <t>PALMIERI Giovanni Filippo</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -6602,17 +6602,17 @@
       <c r="D192" t="inlineStr"/>
       <c r="E192" t="inlineStr">
         <is>
-          <t>CHIM/06</t>
+          <t>CHIM/09</t>
         </is>
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>03/C1</t>
+          <t>03/D2</t>
         </is>
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>SCUOLA DI SCIENZE E TECNOLOGIE</t>
+          <t>SCUOLA DI SCIENZE DEL FARMACO E DEI PRODOTTI DELLA SALUTE</t>
         </is>
       </c>
       <c r="H192" t="inlineStr"/>
@@ -6620,33 +6620,33 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Ordinario</t>
+          <t>Associato</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>PALMIERI Giovanni Filippo</t>
+          <t>PALUMBO PICCIONELLO Angela</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="D193" t="inlineStr"/>
       <c r="E193" t="inlineStr">
         <is>
-          <t>CHIM/09</t>
+          <t>VET/09</t>
         </is>
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>03/D2</t>
+          <t>07/H5</t>
         </is>
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>SCUOLA DI SCIENZE DEL FARMACO E DEI PRODOTTI DELLA SALUTE</t>
+          <t>SCUOLA DI BIOSCIENZE E MEDICINA VETERINARIA</t>
         </is>
       </c>
       <c r="H193" t="inlineStr"/>
@@ -6654,33 +6654,33 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Associato</t>
+          <t>Ordinario</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>PALUMBO PICCIONELLO Angela</t>
+          <t>PAMBIANCHI Gilberto</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D194" t="inlineStr"/>
       <c r="E194" t="inlineStr">
         <is>
-          <t>VET/09</t>
+          <t>GEO/04</t>
         </is>
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>07/H5</t>
+          <t>04/A3</t>
         </is>
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>SCUOLA DI BIOSCIENZE E MEDICINA VETERINARIA</t>
+          <t>SCUOLA DI SCIENZE E TECNOLOGIE</t>
         </is>
       </c>
       <c r="H194" t="inlineStr"/>
@@ -6688,28 +6688,28 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Ordinario</t>
+          <t>Associato confermato</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>PAMBIANCHI Gilberto</t>
+          <t>PARIS Eleonora</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="D195" t="inlineStr"/>
       <c r="E195" t="inlineStr">
         <is>
-          <t>GEO/04</t>
+          <t>GEO/06</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>04/A3</t>
+          <t>04/A1</t>
         </is>
       </c>
       <c r="G195" t="inlineStr">
@@ -6722,28 +6722,28 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Associato confermato</t>
+          <t>Ricercatore</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>PARIS Eleonora</t>
+          <t>PASINI Leonardo</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D196" t="inlineStr"/>
       <c r="E196" t="inlineStr">
         <is>
-          <t>GEO/06</t>
+          <t>ING-INF/05</t>
         </is>
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>04/A1</t>
+          <t>09/H1</t>
         </is>
       </c>
       <c r="G196" t="inlineStr">
@@ -6756,28 +6756,28 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Ricercatore</t>
+          <t>Associato</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>PASINI Leonardo</t>
+          <t>PELLEI Maura</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="D197" t="inlineStr"/>
       <c r="E197" t="inlineStr">
         <is>
-          <t>ING-INF/05</t>
+          <t>CHIM/03</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>09/H1</t>
+          <t>03/B1</t>
         </is>
       </c>
       <c r="G197" t="inlineStr">
@@ -6795,28 +6795,28 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>PELLEI Maura</t>
+          <t>PERALI Andrea</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D198" t="inlineStr"/>
       <c r="E198" t="inlineStr">
         <is>
-          <t>CHIM/03</t>
+          <t>FIS/03</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>03/B1</t>
+          <t>02/B2</t>
         </is>
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>SCUOLA DI SCIENZE E TECNOLOGIE</t>
+          <t>SCUOLA DI SCIENZE DEL FARMACO E DEI PRODOTTI DELLA SALUTE</t>
         </is>
       </c>
       <c r="H198" t="inlineStr"/>
@@ -6829,28 +6829,28 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>PERALI Andrea</t>
+          <t>PETRELLI Dezemona</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="D199" t="inlineStr"/>
       <c r="E199" t="inlineStr">
         <is>
-          <t>FIS/03</t>
+          <t>MED/07</t>
         </is>
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>02/B2</t>
+          <t>06/A3</t>
         </is>
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>SCUOLA DI SCIENZE DEL FARMACO E DEI PRODOTTI DELLA SALUTE</t>
+          <t>SCUOLA DI BIOSCIENZE E MEDICINA VETERINARIA</t>
         </is>
       </c>
       <c r="H199" t="inlineStr"/>
@@ -6858,33 +6858,33 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Associato</t>
+          <t>Ricercatore</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>PETRELLI Dezemona</t>
+          <t>PETRELLI Fabio</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D200" t="inlineStr"/>
       <c r="E200" t="inlineStr">
         <is>
-          <t>MED/07</t>
+          <t>MED/42</t>
         </is>
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>06/A3</t>
+          <t>06/M1</t>
         </is>
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>SCUOLA DI BIOSCIENZE E MEDICINA VETERINARIA</t>
+          <t>SCUOLA DI SCIENZE DEL FARMACO E DEI PRODOTTI DELLA SALUTE</t>
         </is>
       </c>
       <c r="H200" t="inlineStr"/>
@@ -6892,12 +6892,12 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Ricercatore</t>
+          <t>Ordinario</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>PETRELLI Fabio</t>
+          <t>PETRELLI Luca</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -6908,17 +6908,17 @@
       <c r="D201" t="inlineStr"/>
       <c r="E201" t="inlineStr">
         <is>
-          <t>MED/42</t>
+          <t>IUS/03</t>
         </is>
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>06/M1</t>
+          <t>12/E3</t>
         </is>
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>SCUOLA DI SCIENZE DEL FARMACO E DEI PRODOTTI DELLA SALUTE</t>
+          <t>SCUOLA DI GIURISPRUDENZA</t>
         </is>
       </c>
       <c r="H201" t="inlineStr"/>
@@ -6926,12 +6926,12 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Ordinario</t>
+          <t>Associato</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>PETRELLI Luca</t>
+          <t>PETRELLI Riccardo</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -6942,17 +6942,17 @@
       <c r="D202" t="inlineStr"/>
       <c r="E202" t="inlineStr">
         <is>
-          <t>IUS/03</t>
+          <t>CHIM/08</t>
         </is>
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>12/E3</t>
+          <t>03/D1</t>
         </is>
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>SCUOLA DI GIURISPRUDENZA</t>
+          <t>SCUOLA DI SCIENZE DEL FARMACO E DEI PRODOTTI DELLA SALUTE</t>
         </is>
       </c>
       <c r="H202" t="inlineStr"/>
@@ -6960,12 +6960,12 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Associato</t>
+          <t>Ordinario</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>PETRELLI Riccardo</t>
+          <t>PETRINI Marino</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -6976,17 +6976,17 @@
       <c r="D203" t="inlineStr"/>
       <c r="E203" t="inlineStr">
         <is>
-          <t>CHIM/08</t>
+          <t>CHIM/06</t>
         </is>
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>03/D1</t>
+          <t>03/C1</t>
         </is>
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>SCUOLA DI SCIENZE DEL FARMACO E DEI PRODOTTI DELLA SALUTE</t>
+          <t>SCUOLA DI SCIENZE E TECNOLOGIE</t>
         </is>
       </c>
       <c r="H203" t="inlineStr"/>
@@ -6994,33 +6994,33 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Ordinario</t>
+          <t>Ricercatore</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>PETRINI Marino</t>
+          <t>PETRUCCI Enrica</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="D204" t="inlineStr"/>
       <c r="E204" t="inlineStr">
         <is>
-          <t>CHIM/06</t>
+          <t>ICAR/19</t>
         </is>
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>03/C1</t>
+          <t>08/E2</t>
         </is>
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>SCUOLA DI SCIENZE E TECNOLOGIE</t>
+          <t>SCUOLA DI ARCHITETTURA E DESIGN</t>
         </is>
       </c>
       <c r="H204" t="inlineStr"/>
@@ -7028,33 +7028,33 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>Ricercatore</t>
+          <t>Ordinario</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>PETRUCCI Enrica</t>
+          <t>PETTINARI Claudio</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D205" t="inlineStr"/>
       <c r="E205" t="inlineStr">
         <is>
-          <t>ICAR/19</t>
+          <t>CHIM/03</t>
         </is>
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>08/E2</t>
+          <t>03/B1</t>
         </is>
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>SCUOLA DI ARCHITETTURA E DESIGN</t>
+          <t>SCUOLA DI SCIENZE DEL FARMACO E DEI PRODOTTI DELLA SALUTE</t>
         </is>
       </c>
       <c r="H205" t="inlineStr"/>
@@ -7067,7 +7067,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>PETTINARI Claudio</t>
+          <t>PETTINARI Riccardo</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -7096,12 +7096,12 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>Ordinario</t>
+          <t>Ricercatore a t.d. - t.pieno (art. 24 c.3-b L. 240/10)</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>PETTINARI Riccardo</t>
+          <t>PICA Gennaro</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -7112,17 +7112,17 @@
       <c r="D207" t="inlineStr"/>
       <c r="E207" t="inlineStr">
         <is>
-          <t>CHIM/03</t>
+          <t>M-PSI/05</t>
         </is>
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>03/B1</t>
+          <t>11/E3</t>
         </is>
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>SCUOLA DI SCIENZE DEL FARMACO E DEI PRODOTTI DELLA SALUTE</t>
+          <t>SCUOLA DI GIURISPRUDENZA</t>
         </is>
       </c>
       <c r="H207" t="inlineStr"/>
@@ -7130,12 +7130,12 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>Ricercatore a t.d. - t.pieno (art. 24 c.3-b L. 240/10)</t>
+          <t>Ricercatore</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>PICA Gennaro</t>
+          <t>PIERANTONI Pietro Paolo</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -7146,17 +7146,17 @@
       <c r="D208" t="inlineStr"/>
       <c r="E208" t="inlineStr">
         <is>
-          <t>M-PSI/05</t>
+          <t>GEO/03</t>
         </is>
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>11/E3</t>
+          <t>04/A2</t>
         </is>
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>SCUOLA DI GIURISPRUDENZA</t>
+          <t>SCUOLA DI SCIENZE E TECNOLOGIE</t>
         </is>
       </c>
       <c r="H208" t="inlineStr"/>
@@ -7164,12 +7164,12 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>Ricercatore</t>
+          <t>Ordinario</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>PIERANTONI Pietro Paolo</t>
+          <t>PIERGALLINI Riccardo</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -7180,12 +7180,12 @@
       <c r="D209" t="inlineStr"/>
       <c r="E209" t="inlineStr">
         <is>
-          <t>GEO/03</t>
+          <t>MAT/03</t>
         </is>
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>04/A2</t>
+          <t>01/A2</t>
         </is>
       </c>
       <c r="G209" t="inlineStr">
@@ -7198,12 +7198,12 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>Ordinario</t>
+          <t>Associato confermato</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>PIERGALLINI Riccardo</t>
+          <t>PIERGENTILI Alessandro</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -7214,17 +7214,17 @@
       <c r="D210" t="inlineStr"/>
       <c r="E210" t="inlineStr">
         <is>
-          <t>MAT/03</t>
+          <t>CHIM/08</t>
         </is>
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t>01/A2</t>
+          <t>03/D1</t>
         </is>
       </c>
       <c r="G210" t="inlineStr">
         <is>
-          <t>SCUOLA DI SCIENZE E TECNOLOGIE</t>
+          <t>SCUOLA DI SCIENZE DEL FARMACO E DEI PRODOTTI DELLA SALUTE</t>
         </is>
       </c>
       <c r="H210" t="inlineStr"/>
@@ -7232,33 +7232,33 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>Associato confermato</t>
+          <t>Ordinario</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>PIERGENTILI Alessandro</t>
+          <t>PIETRONI Lucia</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="D211" t="inlineStr"/>
       <c r="E211" t="inlineStr">
         <is>
-          <t>CHIM/08</t>
+          <t>ICAR/13</t>
         </is>
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t>03/D1</t>
+          <t>08/C1</t>
         </is>
       </c>
       <c r="G211" t="inlineStr">
         <is>
-          <t>SCUOLA DI SCIENZE DEL FARMACO E DEI PRODOTTI DELLA SALUTE</t>
+          <t>SCUOLA DI ARCHITETTURA E DESIGN</t>
         </is>
       </c>
       <c r="H211" t="inlineStr"/>
@@ -7266,33 +7266,33 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>Ordinario</t>
+          <t>Ricercatore a t.d. - t.pieno (art. 24 c.3-b L. 240/10)</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>PIETRONI Lucia</t>
+          <t>PILATI Sebastiano</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D212" t="inlineStr"/>
       <c r="E212" t="inlineStr">
         <is>
-          <t>ICAR/13</t>
+          <t>FIS/03</t>
         </is>
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>08/C1</t>
+          <t>02/B2</t>
         </is>
       </c>
       <c r="G212" t="inlineStr">
         <is>
-          <t>SCUOLA DI ARCHITETTURA E DESIGN</t>
+          <t>SCUOLA DI SCIENZE E TECNOLOGIE</t>
         </is>
       </c>
       <c r="H212" t="inlineStr"/>
@@ -7300,12 +7300,12 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>Ricercatore a t.d. - t.pieno (art. 24 c.3-b L. 240/10)</t>
+          <t>Ricercatore</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>PILATI Sebastiano</t>
+          <t>PINTO Nicola</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -7316,12 +7316,12 @@
       <c r="D213" t="inlineStr"/>
       <c r="E213" t="inlineStr">
         <is>
-          <t>FIS/03</t>
+          <t>FIS/01</t>
         </is>
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>02/B2</t>
+          <t>02/B1</t>
         </is>
       </c>
       <c r="G213" t="inlineStr">
@@ -7339,7 +7339,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>PINTO Nicola</t>
+          <t>PIOLETTI Ugo</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -7350,17 +7350,17 @@
       <c r="D214" t="inlineStr"/>
       <c r="E214" t="inlineStr">
         <is>
-          <t>FIS/01</t>
+          <t>IUS/17</t>
         </is>
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>02/B1</t>
+          <t>12/G1</t>
         </is>
       </c>
       <c r="G214" t="inlineStr">
         <is>
-          <t>SCUOLA DI SCIENZE E TECNOLOGIE</t>
+          <t>SCUOLA DI GIURISPRUDENZA</t>
         </is>
       </c>
       <c r="H214" t="inlineStr"/>
@@ -7368,12 +7368,12 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>Ricercatore</t>
+          <t>Associato confermato</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>PIOLETTI Ugo</t>
+          <t>POLIDORI Carlo</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -7384,17 +7384,17 @@
       <c r="D215" t="inlineStr"/>
       <c r="E215" t="inlineStr">
         <is>
-          <t>IUS/17</t>
+          <t>BIO/14</t>
         </is>
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>12/G1</t>
+          <t>05/G1</t>
         </is>
       </c>
       <c r="G215" t="inlineStr">
         <is>
-          <t>SCUOLA DI GIURISPRUDENZA</t>
+          <t>SCUOLA DI SCIENZE DEL FARMACO E DEI PRODOTTI DELLA SALUTE</t>
         </is>
       </c>
       <c r="H215" t="inlineStr"/>
@@ -7402,12 +7402,12 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>Associato confermato</t>
+          <t>Ordinario</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>POLIDORI Carlo</t>
+          <t>POLIDORI Paolo</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -7418,12 +7418,12 @@
       <c r="D216" t="inlineStr"/>
       <c r="E216" t="inlineStr">
         <is>
-          <t>BIO/14</t>
+          <t>AGR/18</t>
         </is>
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t>05/G1</t>
+          <t>07/G1</t>
         </is>
       </c>
       <c r="G216" t="inlineStr">
@@ -7436,12 +7436,12 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>Ordinario</t>
+          <t>Associato</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>POLIDORI Paolo</t>
+          <t>POLINI Andrea</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -7452,17 +7452,17 @@
       <c r="D217" t="inlineStr"/>
       <c r="E217" t="inlineStr">
         <is>
-          <t>AGR/18</t>
+          <t>INF/01</t>
         </is>
       </c>
       <c r="F217" t="inlineStr">
         <is>
-          <t>07/G1</t>
+          <t>01/B1</t>
         </is>
       </c>
       <c r="G217" t="inlineStr">
         <is>
-          <t>SCUOLA DI SCIENZE DEL FARMACO E DEI PRODOTTI DELLA SALUTE</t>
+          <t>SCUOLA DI SCIENZE E TECNOLOGIE</t>
         </is>
       </c>
       <c r="H217" t="inlineStr"/>
@@ -7470,33 +7470,33 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>Associato</t>
+          <t>Ricercatore</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>POLINI Andrea</t>
+          <t>POLZONETTI Valeria</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="D218" t="inlineStr"/>
       <c r="E218" t="inlineStr">
         <is>
-          <t>INF/01</t>
+          <t>BIO/10</t>
         </is>
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>01/B1</t>
+          <t>05/E1</t>
         </is>
       </c>
       <c r="G218" t="inlineStr">
         <is>
-          <t>SCUOLA DI SCIENZE E TECNOLOGIE</t>
+          <t>SCUOLA DI BIOSCIENZE E MEDICINA VETERINARIA</t>
         </is>
       </c>
       <c r="H218" t="inlineStr"/>
@@ -7504,33 +7504,33 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>Ricercatore</t>
+          <t>Associato confermato</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>POLZONETTI Valeria</t>
+          <t>POMPEI Pierluigi</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D219" t="inlineStr"/>
       <c r="E219" t="inlineStr">
         <is>
-          <t>BIO/10</t>
+          <t>BIO/14</t>
         </is>
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>05/E1</t>
+          <t>05/G1</t>
         </is>
       </c>
       <c r="G219" t="inlineStr">
         <is>
-          <t>SCUOLA DI BIOSCIENZE E MEDICINA VETERINARIA</t>
+          <t>SCUOLA DI SCIENZE DEL FARMACO E DEI PRODOTTI DELLA SALUTE</t>
         </is>
       </c>
       <c r="H219" t="inlineStr"/>
@@ -7538,33 +7538,33 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>Associato confermato</t>
+          <t>Ricercatore</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>POMPEI Pierluigi</t>
+          <t>PREZIUSO Silvia</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="D220" t="inlineStr"/>
       <c r="E220" t="inlineStr">
         <is>
-          <t>BIO/14</t>
+          <t>VET/05</t>
         </is>
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>05/G1</t>
+          <t>07/H3</t>
         </is>
       </c>
       <c r="G220" t="inlineStr">
         <is>
-          <t>SCUOLA DI SCIENZE DEL FARMACO E DEI PRODOTTI DELLA SALUTE</t>
+          <t>SCUOLA DI BIOSCIENZE E MEDICINA VETERINARIA</t>
         </is>
       </c>
       <c r="H220" t="inlineStr"/>
@@ -7577,7 +7577,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>PREZIUSO Silvia</t>
+          <t>PUCCIARELLI Sandra</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -7588,12 +7588,12 @@
       <c r="D221" t="inlineStr"/>
       <c r="E221" t="inlineStr">
         <is>
-          <t>VET/05</t>
+          <t>BIO/07</t>
         </is>
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>07/H3</t>
+          <t>05/C1</t>
         </is>
       </c>
       <c r="G221" t="inlineStr">
@@ -7611,7 +7611,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>PUCCIARELLI Sandra</t>
+          <t>PUCCIARELLI Stefania</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -7622,12 +7622,12 @@
       <c r="D222" t="inlineStr"/>
       <c r="E222" t="inlineStr">
         <is>
-          <t>BIO/07</t>
+          <t>BIO/10</t>
         </is>
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>05/C1</t>
+          <t>05/E1</t>
         </is>
       </c>
       <c r="G222" t="inlineStr">
@@ -7640,12 +7640,12 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>Ricercatore</t>
+          <t>Associato confermato</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>PUCCIARELLI Stefania</t>
+          <t>QUAGLIA Wilma</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -7656,17 +7656,17 @@
       <c r="D223" t="inlineStr"/>
       <c r="E223" t="inlineStr">
         <is>
-          <t>BIO/10</t>
+          <t>CHIM/08</t>
         </is>
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>05/E1</t>
+          <t>03/D1</t>
         </is>
       </c>
       <c r="G223" t="inlineStr">
         <is>
-          <t>SCUOLA DI BIOSCIENZE E MEDICINA VETERINARIA</t>
+          <t>SCUOLA DI SCIENZE DEL FARMACO E DEI PRODOTTI DELLA SALUTE</t>
         </is>
       </c>
       <c r="H223" t="inlineStr"/>
@@ -7674,12 +7674,12 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>Associato confermato</t>
+          <t>Ricercatore</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>QUAGLIA Wilma</t>
+          <t>QUASSINTI Luana</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -7690,12 +7690,12 @@
       <c r="D224" t="inlineStr"/>
       <c r="E224" t="inlineStr">
         <is>
-          <t>CHIM/08</t>
+          <t>BIO/09</t>
         </is>
       </c>
       <c r="F224" t="inlineStr">
         <is>
-          <t>03/D1</t>
+          <t>05/D1</t>
         </is>
       </c>
       <c r="G224" t="inlineStr">
@@ -7708,12 +7708,12 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>Ricercatore</t>
+          <t>Associato</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>QUASSINTI Luana</t>
+          <t>RE Barbara</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -7724,17 +7724,17 @@
       <c r="D225" t="inlineStr"/>
       <c r="E225" t="inlineStr">
         <is>
-          <t>BIO/09</t>
+          <t>INF/01</t>
         </is>
       </c>
       <c r="F225" t="inlineStr">
         <is>
-          <t>05/D1</t>
+          <t>01/B1</t>
         </is>
       </c>
       <c r="G225" t="inlineStr">
         <is>
-          <t>SCUOLA DI SCIENZE DEL FARMACO E DEI PRODOTTI DELLA SALUTE</t>
+          <t>SCUOLA DI SCIENZE E TECNOLOGIE</t>
         </is>
       </c>
       <c r="H225" t="inlineStr"/>
@@ -7742,33 +7742,33 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>Associato</t>
+          <t>Ordinario</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>RE Barbara</t>
+          <t>REA Stefano</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D226" t="inlineStr"/>
       <c r="E226" t="inlineStr">
         <is>
-          <t>INF/01</t>
+          <t>VET/04</t>
         </is>
       </c>
       <c r="F226" t="inlineStr">
         <is>
-          <t>01/B1</t>
+          <t>07/H2</t>
         </is>
       </c>
       <c r="G226" t="inlineStr">
         <is>
-          <t>SCUOLA DI SCIENZE E TECNOLOGIE</t>
+          <t>SCUOLA DI BIOSCIENZE E MEDICINA VETERINARIA</t>
         </is>
       </c>
       <c r="H226" t="inlineStr"/>
@@ -7781,7 +7781,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>REA Stefano</t>
+          <t>RENIERI Carlo</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -7792,17 +7792,17 @@
       <c r="D227" t="inlineStr"/>
       <c r="E227" t="inlineStr">
         <is>
-          <t>VET/04</t>
+          <t>AGR/17</t>
         </is>
       </c>
       <c r="F227" t="inlineStr">
         <is>
-          <t>07/H2</t>
+          <t>07/G1</t>
         </is>
       </c>
       <c r="G227" t="inlineStr">
         <is>
-          <t>SCUOLA DI BIOSCIENZE E MEDICINA VETERINARIA</t>
+          <t>SCUOLA DI SCIENZE DEL FARMACO E DEI PRODOTTI DELLA SALUTE</t>
         </is>
       </c>
       <c r="H227" t="inlineStr"/>
@@ -7810,33 +7810,33 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>Ordinario</t>
+          <t>Associato</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>RENIERI Carlo</t>
+          <t>RICCI Giovanna</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="D228" t="inlineStr"/>
       <c r="E228" t="inlineStr">
         <is>
-          <t>AGR/17</t>
+          <t>MED/43</t>
         </is>
       </c>
       <c r="F228" t="inlineStr">
         <is>
-          <t>07/G1</t>
+          <t>06/M2</t>
         </is>
       </c>
       <c r="G228" t="inlineStr">
         <is>
-          <t>SCUOLA DI SCIENZE DEL FARMACO E DEI PRODOTTI DELLA SALUTE</t>
+          <t>SCUOLA DI GIURISPRUDENZA</t>
         </is>
       </c>
       <c r="H228" t="inlineStr"/>
@@ -7844,12 +7844,12 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>Associato</t>
+          <t>Associato confermato</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>RICCI Giovanna</t>
+          <t>RICCI Irene</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -7860,17 +7860,17 @@
       <c r="D229" t="inlineStr"/>
       <c r="E229" t="inlineStr">
         <is>
-          <t>MED/43</t>
+          <t>VET/06</t>
         </is>
       </c>
       <c r="F229" t="inlineStr">
         <is>
-          <t>06/M2</t>
+          <t>07/H3</t>
         </is>
       </c>
       <c r="G229" t="inlineStr">
         <is>
-          <t>SCUOLA DI GIURISPRUDENZA</t>
+          <t>SCUOLA DI BIOSCIENZE E MEDICINA VETERINARIA</t>
         </is>
       </c>
       <c r="H229" t="inlineStr"/>
@@ -7878,33 +7878,33 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>Associato confermato</t>
+          <t>Ordinario</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>RICCI Irene</t>
+          <t>RIZZO Francesco</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D230" t="inlineStr"/>
       <c r="E230" t="inlineStr">
         <is>
-          <t>VET/06</t>
+          <t>IUS/01</t>
         </is>
       </c>
       <c r="F230" t="inlineStr">
         <is>
-          <t>07/H3</t>
+          <t>12/A1</t>
         </is>
       </c>
       <c r="G230" t="inlineStr">
         <is>
-          <t>SCUOLA DI BIOSCIENZE E MEDICINA VETERINARIA</t>
+          <t>SCUOLA DI GIURISPRUDENZA</t>
         </is>
       </c>
       <c r="H230" t="inlineStr"/>
@@ -7912,12 +7912,12 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>Ordinario</t>
+          <t>Associato</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>RIZZO Francesco</t>
+          <t>ROMAGNI Ludovico</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -7928,17 +7928,17 @@
       <c r="D231" t="inlineStr"/>
       <c r="E231" t="inlineStr">
         <is>
-          <t>IUS/01</t>
+          <t>ICAR/14</t>
         </is>
       </c>
       <c r="F231" t="inlineStr">
         <is>
-          <t>12/A1</t>
+          <t>08/D1</t>
         </is>
       </c>
       <c r="G231" t="inlineStr">
         <is>
-          <t>SCUOLA DI GIURISPRUDENZA</t>
+          <t>SCUOLA DI ARCHITETTURA E DESIGN</t>
         </is>
       </c>
       <c r="H231" t="inlineStr"/>
@@ -7946,33 +7946,33 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>Associato</t>
+          <t>Associato confermato</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>ROMAGNI Ludovico</t>
+          <t>RONCARATI Alessandra</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="D232" t="inlineStr"/>
       <c r="E232" t="inlineStr">
         <is>
-          <t>ICAR/14</t>
+          <t>AGR/20</t>
         </is>
       </c>
       <c r="F232" t="inlineStr">
         <is>
-          <t>08/D1</t>
+          <t>07/G1</t>
         </is>
       </c>
       <c r="G232" t="inlineStr">
         <is>
-          <t>SCUOLA DI ARCHITETTURA E DESIGN</t>
+          <t>SCUOLA DI BIOSCIENZE E MEDICINA VETERINARIA</t>
         </is>
       </c>
       <c r="H232" t="inlineStr"/>
@@ -7980,33 +7980,33 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>Associato confermato</t>
+          <t>Associato</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>RONCARATI Alessandra</t>
+          <t>ROSSI Daniele</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D233" t="inlineStr"/>
       <c r="E233" t="inlineStr">
         <is>
-          <t>AGR/20</t>
+          <t>ICAR/17</t>
         </is>
       </c>
       <c r="F233" t="inlineStr">
         <is>
-          <t>07/G1</t>
+          <t>08/E1</t>
         </is>
       </c>
       <c r="G233" t="inlineStr">
         <is>
-          <t>SCUOLA DI BIOSCIENZE E MEDICINA VETERINARIA</t>
+          <t>SCUOLA DI ARCHITETTURA E DESIGN</t>
         </is>
       </c>
       <c r="H233" t="inlineStr"/>
@@ -8014,12 +8014,12 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>Associato</t>
+          <t>Ordinario</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>ROSSI Daniele</t>
+          <t>ROSSI Giacomo</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -8030,17 +8030,17 @@
       <c r="D234" t="inlineStr"/>
       <c r="E234" t="inlineStr">
         <is>
-          <t>ICAR/17</t>
+          <t>VET/03</t>
         </is>
       </c>
       <c r="F234" t="inlineStr">
         <is>
-          <t>08/E1</t>
+          <t>07/H2</t>
         </is>
       </c>
       <c r="G234" t="inlineStr">
         <is>
-          <t>SCUOLA DI ARCHITETTURA E DESIGN</t>
+          <t>SCUOLA DI BIOSCIENZE E MEDICINA VETERINARIA</t>
         </is>
       </c>
       <c r="H234" t="inlineStr"/>
@@ -8053,28 +8053,28 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>ROSSI Giacomo</t>
+          <t>RUGGERI Lucia</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="D235" t="inlineStr"/>
       <c r="E235" t="inlineStr">
         <is>
-          <t>VET/03</t>
+          <t>IUS/01</t>
         </is>
       </c>
       <c r="F235" t="inlineStr">
         <is>
-          <t>07/H2</t>
+          <t>12/A1</t>
         </is>
       </c>
       <c r="G235" t="inlineStr">
         <is>
-          <t>SCUOLA DI BIOSCIENZE E MEDICINA VETERINARIA</t>
+          <t>SCUOLA DI GIURISPRUDENZA</t>
         </is>
       </c>
       <c r="H235" t="inlineStr"/>
@@ -8082,33 +8082,33 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>Ordinario</t>
+          <t>Ricercatore a t.d. - t.pieno (art. 24 c.3-b L. 240/10)</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>RUGGERI Lucia</t>
+          <t>RUGGIERO Roberto</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D236" t="inlineStr"/>
       <c r="E236" t="inlineStr">
         <is>
-          <t>IUS/01</t>
+          <t>ICAR/12</t>
         </is>
       </c>
       <c r="F236" t="inlineStr">
         <is>
-          <t>12/A1</t>
+          <t>08/C1</t>
         </is>
       </c>
       <c r="G236" t="inlineStr">
         <is>
-          <t>SCUOLA DI GIURISPRUDENZA</t>
+          <t>SCUOLA DI ARCHITETTURA E DESIGN</t>
         </is>
       </c>
       <c r="H236" t="inlineStr"/>
@@ -8116,33 +8116,33 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>Ricercatore a t.d. - t.pieno (art. 24 c.3-b L. 240/10)</t>
+          <t>Associato</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>RUGGIERO Roberto</t>
+          <t>SABBIETI Maria Giovanna</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="D237" t="inlineStr"/>
       <c r="E237" t="inlineStr">
         <is>
-          <t>ICAR/12</t>
+          <t>BIO/06</t>
         </is>
       </c>
       <c r="F237" t="inlineStr">
         <is>
-          <t>08/C1</t>
+          <t>05/B2</t>
         </is>
       </c>
       <c r="G237" t="inlineStr">
         <is>
-          <t>SCUOLA DI ARCHITETTURA E DESIGN</t>
+          <t>SCUOLA DI BIOSCIENZE E MEDICINA VETERINARIA</t>
         </is>
       </c>
       <c r="H237" t="inlineStr"/>
@@ -8150,33 +8150,33 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>Associato</t>
+          <t>Ordinario</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>SABBIETI Maria Giovanna</t>
+          <t>SAGRATINI Gianni</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D238" t="inlineStr"/>
       <c r="E238" t="inlineStr">
         <is>
-          <t>BIO/06</t>
+          <t>CHIM/10</t>
         </is>
       </c>
       <c r="F238" t="inlineStr">
         <is>
-          <t>05/B2</t>
+          <t>03/D1</t>
         </is>
       </c>
       <c r="G238" t="inlineStr">
         <is>
-          <t>SCUOLA DI BIOSCIENZE E MEDICINA VETERINARIA</t>
+          <t>SCUOLA DI SCIENZE DEL FARMACO E DEI PRODOTTI DELLA SALUTE</t>
         </is>
       </c>
       <c r="H238" t="inlineStr"/>
@@ -8184,12 +8184,12 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>Ordinario</t>
+          <t>Associato confermato</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>SAGRATINI Gianni</t>
+          <t>SANTINI Carlo</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -8200,17 +8200,17 @@
       <c r="D239" t="inlineStr"/>
       <c r="E239" t="inlineStr">
         <is>
-          <t>CHIM/10</t>
+          <t>CHIM/03</t>
         </is>
       </c>
       <c r="F239" t="inlineStr">
         <is>
-          <t>03/D1</t>
+          <t>03/B1</t>
         </is>
       </c>
       <c r="G239" t="inlineStr">
         <is>
-          <t>SCUOLA DI SCIENZE DEL FARMACO E DEI PRODOTTI DELLA SALUTE</t>
+          <t>SCUOLA DI SCIENZE E TECNOLOGIE</t>
         </is>
       </c>
       <c r="H239" t="inlineStr"/>
@@ -8218,12 +8218,12 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>Associato confermato</t>
+          <t>Ordinario</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>SANTINI Carlo</t>
+          <t>SANTONI Giorgio</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -8234,17 +8234,17 @@
       <c r="D240" t="inlineStr"/>
       <c r="E240" t="inlineStr">
         <is>
-          <t>CHIM/03</t>
+          <t>MED/04</t>
         </is>
       </c>
       <c r="F240" t="inlineStr">
         <is>
-          <t>03/B1</t>
+          <t>06/A2</t>
         </is>
       </c>
       <c r="G240" t="inlineStr">
         <is>
-          <t>SCUOLA DI SCIENZE E TECNOLOGIE</t>
+          <t>SCUOLA DI SCIENZE DEL FARMACO E DEI PRODOTTI DELLA SALUTE</t>
         </is>
       </c>
       <c r="H240" t="inlineStr"/>
@@ -8252,12 +8252,12 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>Ordinario</t>
+          <t>Associato confermato</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>SANTONI Giorgio</t>
+          <t>SANTUCCIO Salvatore</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -8268,17 +8268,17 @@
       <c r="D241" t="inlineStr"/>
       <c r="E241" t="inlineStr">
         <is>
-          <t>MED/04</t>
+          <t>ICAR/17</t>
         </is>
       </c>
       <c r="F241" t="inlineStr">
         <is>
-          <t>06/A2</t>
+          <t>08/E1</t>
         </is>
       </c>
       <c r="G241" t="inlineStr">
         <is>
-          <t>SCUOLA DI SCIENZE DEL FARMACO E DEI PRODOTTI DELLA SALUTE</t>
+          <t>SCUOLA DI ARCHITETTURA E DESIGN</t>
         </is>
       </c>
       <c r="H241" t="inlineStr"/>
@@ -8291,7 +8291,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>SANTUCCIO Salvatore</t>
+          <t>SANTULLI Carlo</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -8302,17 +8302,17 @@
       <c r="D242" t="inlineStr"/>
       <c r="E242" t="inlineStr">
         <is>
-          <t>ICAR/17</t>
+          <t>ING-IND/22</t>
         </is>
       </c>
       <c r="F242" t="inlineStr">
         <is>
-          <t>08/E1</t>
+          <t>09/D1</t>
         </is>
       </c>
       <c r="G242" t="inlineStr">
         <is>
-          <t>SCUOLA DI ARCHITETTURA E DESIGN</t>
+          <t>SCUOLA DI SCIENZE E TECNOLOGIE</t>
         </is>
       </c>
       <c r="H242" t="inlineStr"/>
@@ -8320,12 +8320,12 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>Associato confermato</t>
+          <t>Associato</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>SANTULLI Carlo</t>
+          <t>SARDO Nicolo'</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
@@ -8336,17 +8336,17 @@
       <c r="D243" t="inlineStr"/>
       <c r="E243" t="inlineStr">
         <is>
-          <t>ING-IND/22</t>
+          <t>ICAR/17</t>
         </is>
       </c>
       <c r="F243" t="inlineStr">
         <is>
-          <t>09/D1</t>
+          <t>08/E1</t>
         </is>
       </c>
       <c r="G243" t="inlineStr">
         <is>
-          <t>SCUOLA DI SCIENZE E TECNOLOGIE</t>
+          <t>SCUOLA DI ARCHITETTURA E DESIGN</t>
         </is>
       </c>
       <c r="H243" t="inlineStr"/>
@@ -8354,12 +8354,12 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>Associato</t>
+          <t>Ordinario</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>SARDO Nicolo'</t>
+          <t>SARGOLINI Massimo</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -8370,12 +8370,12 @@
       <c r="D244" t="inlineStr"/>
       <c r="E244" t="inlineStr">
         <is>
-          <t>ICAR/17</t>
+          <t>ICAR/21</t>
         </is>
       </c>
       <c r="F244" t="inlineStr">
         <is>
-          <t>08/E1</t>
+          <t>08/F1</t>
         </is>
       </c>
       <c r="G244" t="inlineStr">
@@ -8388,12 +8388,12 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>Ordinario</t>
+          <t>Ricercatore</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>SARGOLINI Massimo</t>
+          <t>SCHETTINO Antonio</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
@@ -8404,17 +8404,17 @@
       <c r="D245" t="inlineStr"/>
       <c r="E245" t="inlineStr">
         <is>
-          <t>ICAR/21</t>
+          <t>GEO/10</t>
         </is>
       </c>
       <c r="F245" t="inlineStr">
         <is>
-          <t>08/F1</t>
+          <t>04/A4</t>
         </is>
       </c>
       <c r="G245" t="inlineStr">
         <is>
-          <t>SCUOLA DI ARCHITETTURA E DESIGN</t>
+          <t>SCUOLA DI SCIENZE E TECNOLOGIE</t>
         </is>
       </c>
       <c r="H245" t="inlineStr"/>
@@ -8422,33 +8422,33 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>Ricercatore</t>
+          <t>Associato confermato</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>SCHETTINO Antonio</t>
+          <t>SCOCCO Paola</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="D246" t="inlineStr"/>
       <c r="E246" t="inlineStr">
         <is>
-          <t>GEO/10</t>
+          <t>VET/01</t>
         </is>
       </c>
       <c r="F246" t="inlineStr">
         <is>
-          <t>04/A4</t>
+          <t>07/H1</t>
         </is>
       </c>
       <c r="G246" t="inlineStr">
         <is>
-          <t>SCUOLA DI SCIENZE E TECNOLOGIE</t>
+          <t>SCUOLA DI BIOSCIENZE E MEDICINA VETERINARIA</t>
         </is>
       </c>
       <c r="H246" t="inlineStr"/>
@@ -8456,12 +8456,12 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>Associato confermato</t>
+          <t>Ricercatore a t.d. - t.pieno (art. 24 c.3-a L. 240/10)</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>SCOCCO Paola</t>
+          <t>SCURI Stefania</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
@@ -8472,17 +8472,17 @@
       <c r="D247" t="inlineStr"/>
       <c r="E247" t="inlineStr">
         <is>
-          <t>VET/01</t>
+          <t>MED/42</t>
         </is>
       </c>
       <c r="F247" t="inlineStr">
         <is>
-          <t>07/H1</t>
+          <t>06/M1</t>
         </is>
       </c>
       <c r="G247" t="inlineStr">
         <is>
-          <t>SCUOLA DI BIOSCIENZE E MEDICINA VETERINARIA</t>
+          <t>SCUOLA DI SCIENZE DEL FARMACO E DEI PRODOTTI DELLA SALUTE</t>
         </is>
       </c>
       <c r="H247" t="inlineStr"/>
@@ -8490,12 +8490,12 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>Ricercatore a t.d. - t.pieno (art. 24 c.3-a L. 240/10)</t>
+          <t>Ricercatore</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>SCURI Stefania</t>
+          <t>SILVI Stefania</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
@@ -8506,17 +8506,17 @@
       <c r="D248" t="inlineStr"/>
       <c r="E248" t="inlineStr">
         <is>
-          <t>MED/42</t>
+          <t>BIO/19</t>
         </is>
       </c>
       <c r="F248" t="inlineStr">
         <is>
-          <t>06/M1</t>
+          <t>05/I2</t>
         </is>
       </c>
       <c r="G248" t="inlineStr">
         <is>
-          <t>SCUOLA DI SCIENZE DEL FARMACO E DEI PRODOTTI DELLA SALUTE</t>
+          <t>SCUOLA DI BIOSCIENZE E MEDICINA VETERINARIA</t>
         </is>
       </c>
       <c r="H248" t="inlineStr"/>
@@ -8529,28 +8529,28 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>SILVI Stefania</t>
+          <t>SIMONUCCI Stefano</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D249" t="inlineStr"/>
       <c r="E249" t="inlineStr">
         <is>
-          <t>BIO/19</t>
+          <t>FIS/01</t>
         </is>
       </c>
       <c r="F249" t="inlineStr">
         <is>
-          <t>05/I2</t>
+          <t>02/A1</t>
         </is>
       </c>
       <c r="G249" t="inlineStr">
         <is>
-          <t>SCUOLA DI BIOSCIENZE E MEDICINA VETERINARIA</t>
+          <t>SCUOLA DI SCIENZE E TECNOLOGIE</t>
         </is>
       </c>
       <c r="H249" t="inlineStr"/>
@@ -8558,12 +8558,12 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>Ricercatore</t>
+          <t>Associato</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>SIMONUCCI Stefano</t>
+          <t>SIOTTO Federico</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -8574,17 +8574,17 @@
       <c r="D250" t="inlineStr"/>
       <c r="E250" t="inlineStr">
         <is>
-          <t>FIS/01</t>
+          <t>IUS/07</t>
         </is>
       </c>
       <c r="F250" t="inlineStr">
         <is>
-          <t>02/A1</t>
+          <t>12/B2</t>
         </is>
       </c>
       <c r="G250" t="inlineStr">
         <is>
-          <t>SCUOLA DI SCIENZE E TECNOLOGIE</t>
+          <t>SCUOLA DI GIURISPRUDENZA</t>
         </is>
       </c>
       <c r="H250" t="inlineStr"/>
@@ -8592,12 +8592,12 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>Associato</t>
+          <t>Ordinario</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>SIOTTO Federico</t>
+          <t>SIRIGNANO Ascanio</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -8608,12 +8608,12 @@
       <c r="D251" t="inlineStr"/>
       <c r="E251" t="inlineStr">
         <is>
-          <t>IUS/07</t>
+          <t>MED/43</t>
         </is>
       </c>
       <c r="F251" t="inlineStr">
         <is>
-          <t>12/B2</t>
+          <t>06/M2</t>
         </is>
       </c>
       <c r="G251" t="inlineStr">
@@ -8631,7 +8631,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>SIRIGNANO Ascanio</t>
+          <t>SPATERNA Andrea</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
@@ -8642,17 +8642,17 @@
       <c r="D252" t="inlineStr"/>
       <c r="E252" t="inlineStr">
         <is>
-          <t>MED/43</t>
+          <t>VET/08</t>
         </is>
       </c>
       <c r="F252" t="inlineStr">
         <is>
-          <t>06/M2</t>
+          <t>07/H4</t>
         </is>
       </c>
       <c r="G252" t="inlineStr">
         <is>
-          <t>SCUOLA DI GIURISPRUDENZA</t>
+          <t>SCUOLA DI BIOSCIENZE E MEDICINA VETERINARIA</t>
         </is>
       </c>
       <c r="H252" t="inlineStr"/>
@@ -8660,12 +8660,12 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>Ordinario</t>
+          <t>Associato confermato</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>SPATERNA Andrea</t>
+          <t>SPIRO Andrea</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
@@ -8676,17 +8676,17 @@
       <c r="D253" t="inlineStr"/>
       <c r="E253" t="inlineStr">
         <is>
-          <t>VET/08</t>
+          <t>MAT/03</t>
         </is>
       </c>
       <c r="F253" t="inlineStr">
         <is>
-          <t>07/H4</t>
+          <t>01/A2</t>
         </is>
       </c>
       <c r="G253" t="inlineStr">
         <is>
-          <t>SCUOLA DI BIOSCIENZE E MEDICINA VETERINARIA</t>
+          <t>SCUOLA DI SCIENZE E TECNOLOGIE</t>
         </is>
       </c>
       <c r="H253" t="inlineStr"/>
@@ -8694,33 +8694,33 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>Associato confermato</t>
+          <t>Ordinario</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>SPIRO Andrea</t>
+          <t>SPUNTARELLI Sara</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="D254" t="inlineStr"/>
       <c r="E254" t="inlineStr">
         <is>
-          <t>MAT/03</t>
+          <t>IUS/10</t>
         </is>
       </c>
       <c r="F254" t="inlineStr">
         <is>
-          <t>01/A2</t>
+          <t>12/D1</t>
         </is>
       </c>
       <c r="G254" t="inlineStr">
         <is>
-          <t>SCUOLA DI SCIENZE E TECNOLOGIE</t>
+          <t>SCUOLA DI GIURISPRUDENZA</t>
         </is>
       </c>
       <c r="H254" t="inlineStr"/>
@@ -8728,33 +8728,33 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>Ordinario</t>
+          <t>Ricercatore</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>SPUNTARELLI Sara</t>
+          <t>SPURIO Roberto</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D255" t="inlineStr"/>
       <c r="E255" t="inlineStr">
         <is>
-          <t>IUS/10</t>
+          <t>BIO/18</t>
         </is>
       </c>
       <c r="F255" t="inlineStr">
         <is>
-          <t>12/D1</t>
+          <t>05/I1</t>
         </is>
       </c>
       <c r="G255" t="inlineStr">
         <is>
-          <t>SCUOLA DI GIURISPRUDENZA</t>
+          <t>SCUOLA DI BIOSCIENZE E MEDICINA VETERINARIA</t>
         </is>
       </c>
       <c r="H255" t="inlineStr"/>
@@ -8767,23 +8767,23 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>SPURIO Roberto</t>
+          <t>STOCCHI Roberta</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="D256" t="inlineStr"/>
       <c r="E256" t="inlineStr">
         <is>
-          <t>BIO/18</t>
+          <t>VET/04</t>
         </is>
       </c>
       <c r="F256" t="inlineStr">
         <is>
-          <t>05/I1</t>
+          <t>07/H2</t>
         </is>
       </c>
       <c r="G256" t="inlineStr">
@@ -8796,33 +8796,33 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>Ricercatore</t>
+          <t>Ordinario</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>STOCCHI Roberta</t>
+          <t>TALIA Michele</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D257" t="inlineStr"/>
       <c r="E257" t="inlineStr">
         <is>
-          <t>VET/04</t>
+          <t>ICAR/21</t>
         </is>
       </c>
       <c r="F257" t="inlineStr">
         <is>
-          <t>07/H2</t>
+          <t>08/F1</t>
         </is>
       </c>
       <c r="G257" t="inlineStr">
         <is>
-          <t>SCUOLA DI BIOSCIENZE E MEDICINA VETERINARIA</t>
+          <t>SCUOLA DI ARCHITETTURA E DESIGN</t>
         </is>
       </c>
       <c r="H257" t="inlineStr"/>
@@ -8830,12 +8830,12 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>Ordinario</t>
+          <t>Ricercatore</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>TALIA Michele</t>
+          <t>TAMBELLA Adolfo Maria</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
@@ -8846,17 +8846,17 @@
       <c r="D258" t="inlineStr"/>
       <c r="E258" t="inlineStr">
         <is>
-          <t>ICAR/21</t>
+          <t>VET/09</t>
         </is>
       </c>
       <c r="F258" t="inlineStr">
         <is>
-          <t>08/F1</t>
+          <t>07/H5</t>
         </is>
       </c>
       <c r="G258" t="inlineStr">
         <is>
-          <t>SCUOLA DI ARCHITETTURA E DESIGN</t>
+          <t>SCUOLA DI BIOSCIENZE E MEDICINA VETERINARIA</t>
         </is>
       </c>
       <c r="H258" t="inlineStr"/>
@@ -8864,12 +8864,12 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>Ricercatore</t>
+          <t>Associato</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>TAMBELLA Adolfo Maria</t>
+          <t>TAYEBATI Seyed Khosrow</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
@@ -8880,17 +8880,17 @@
       <c r="D259" t="inlineStr"/>
       <c r="E259" t="inlineStr">
         <is>
-          <t>VET/09</t>
+          <t>BIO/16</t>
         </is>
       </c>
       <c r="F259" t="inlineStr">
         <is>
-          <t>07/H5</t>
+          <t>05/H1</t>
         </is>
       </c>
       <c r="G259" t="inlineStr">
         <is>
-          <t>SCUOLA DI BIOSCIENZE E MEDICINA VETERINARIA</t>
+          <t>SCUOLA DI SCIENZE DEL FARMACO E DEI PRODOTTI DELLA SALUTE</t>
         </is>
       </c>
       <c r="H259" t="inlineStr"/>
@@ -8898,12 +8898,12 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>Associato</t>
+          <t>Ricercatore a t.d. - t.pieno (art. 24 c.3-b L. 240/10)</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>TAYEBATI Seyed Khosrow</t>
+          <t>TEDESCO Francescomaria</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
@@ -8914,17 +8914,17 @@
       <c r="D260" t="inlineStr"/>
       <c r="E260" t="inlineStr">
         <is>
-          <t>BIO/16</t>
+          <t>SPS/01</t>
         </is>
       </c>
       <c r="F260" t="inlineStr">
         <is>
-          <t>05/H1</t>
+          <t>14/A1</t>
         </is>
       </c>
       <c r="G260" t="inlineStr">
         <is>
-          <t>SCUOLA DI SCIENZE DEL FARMACO E DEI PRODOTTI DELLA SALUTE</t>
+          <t>SCUOLA DI GIURISPRUDENZA</t>
         </is>
       </c>
       <c r="H260" t="inlineStr"/>
@@ -8932,12 +8932,12 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>Ricercatore a t.d. - t.pieno (art. 24 c.3-b L. 240/10)</t>
+          <t>Ordinario</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>TEDESCO Francescomaria</t>
+          <t>TESEI Beniamino</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
@@ -8948,17 +8948,17 @@
       <c r="D261" t="inlineStr"/>
       <c r="E261" t="inlineStr">
         <is>
-          <t>SPS/01</t>
+          <t>VET/08</t>
         </is>
       </c>
       <c r="F261" t="inlineStr">
         <is>
-          <t>14/A1</t>
+          <t>07/H4</t>
         </is>
       </c>
       <c r="G261" t="inlineStr">
         <is>
-          <t>SCUOLA DI GIURISPRUDENZA</t>
+          <t>SCUOLA DI BIOSCIENZE E MEDICINA VETERINARIA</t>
         </is>
       </c>
       <c r="H261" t="inlineStr"/>
@@ -8966,12 +8966,12 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>Ordinario</t>
+          <t>Associato</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>TESEI Beniamino</t>
+          <t>TESEI Luca</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
@@ -8982,17 +8982,17 @@
       <c r="D262" t="inlineStr"/>
       <c r="E262" t="inlineStr">
         <is>
-          <t>VET/08</t>
+          <t>INF/01</t>
         </is>
       </c>
       <c r="F262" t="inlineStr">
         <is>
-          <t>07/H4</t>
+          <t>01/B1</t>
         </is>
       </c>
       <c r="G262" t="inlineStr">
         <is>
-          <t>SCUOLA DI BIOSCIENZE E MEDICINA VETERINARIA</t>
+          <t>SCUOLA DI SCIENZE E TECNOLOGIE</t>
         </is>
       </c>
       <c r="H262" t="inlineStr"/>
@@ -9000,12 +9000,12 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>Associato</t>
+          <t>Ricercatore</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>TESEI Luca</t>
+          <t>THOMA Grid</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
@@ -9016,12 +9016,12 @@
       <c r="D263" t="inlineStr"/>
       <c r="E263" t="inlineStr">
         <is>
-          <t>INF/01</t>
+          <t>SECS-P/08</t>
         </is>
       </c>
       <c r="F263" t="inlineStr">
         <is>
-          <t>01/B1</t>
+          <t>13/B2</t>
         </is>
       </c>
       <c r="G263" t="inlineStr">
@@ -9034,12 +9034,12 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>Ricercatore</t>
+          <t>Associato</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>THOMA Grid</t>
+          <t>TIEZZI Francesco</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
@@ -9050,12 +9050,12 @@
       <c r="D264" t="inlineStr"/>
       <c r="E264" t="inlineStr">
         <is>
-          <t>SECS-P/08</t>
+          <t>INF/01</t>
         </is>
       </c>
       <c r="F264" t="inlineStr">
         <is>
-          <t>13/B2</t>
+          <t>01/B1</t>
         </is>
       </c>
       <c r="G264" t="inlineStr">
@@ -9068,12 +9068,12 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>Associato</t>
+          <t>Ricercatore</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>TIEZZI Francesco</t>
+          <t>TODINI Luca</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
@@ -9084,17 +9084,17 @@
       <c r="D265" t="inlineStr"/>
       <c r="E265" t="inlineStr">
         <is>
-          <t>INF/01</t>
+          <t>VET/02</t>
         </is>
       </c>
       <c r="F265" t="inlineStr">
         <is>
-          <t>01/B1</t>
+          <t>07/H1</t>
         </is>
       </c>
       <c r="G265" t="inlineStr">
         <is>
-          <t>SCUOLA DI SCIENZE E TECNOLOGIE</t>
+          <t>SCUOLA DI BIOSCIENZE E MEDICINA VETERINARIA</t>
         </is>
       </c>
       <c r="H265" t="inlineStr"/>
@@ -9102,12 +9102,12 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>Ricercatore</t>
+          <t>Ordinario</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>TODINI Luca</t>
+          <t>TOFFALORI Carlo</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
@@ -9118,17 +9118,17 @@
       <c r="D266" t="inlineStr"/>
       <c r="E266" t="inlineStr">
         <is>
-          <t>VET/02</t>
+          <t>MAT/01</t>
         </is>
       </c>
       <c r="F266" t="inlineStr">
         <is>
-          <t>07/H1</t>
+          <t>01/A1</t>
         </is>
       </c>
       <c r="G266" t="inlineStr">
         <is>
-          <t>SCUOLA DI BIOSCIENZE E MEDICINA VETERINARIA</t>
+          <t>SCUOLA DI SCIENZE E TECNOLOGIE</t>
         </is>
       </c>
       <c r="H266" t="inlineStr"/>
@@ -9136,12 +9136,12 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>Ordinario</t>
+          <t>Associato</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>TOFFALORI Carlo</t>
+          <t>TOMASSONI Daniele</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
@@ -9152,17 +9152,17 @@
       <c r="D267" t="inlineStr"/>
       <c r="E267" t="inlineStr">
         <is>
-          <t>MAT/01</t>
+          <t>BIO/16</t>
         </is>
       </c>
       <c r="F267" t="inlineStr">
         <is>
-          <t>01/A1</t>
+          <t>05/H1</t>
         </is>
       </c>
       <c r="G267" t="inlineStr">
         <is>
-          <t>SCUOLA DI SCIENZE E TECNOLOGIE</t>
+          <t>SCUOLA DI BIOSCIENZE E MEDICINA VETERINARIA</t>
         </is>
       </c>
       <c r="H267" t="inlineStr"/>
@@ -9170,12 +9170,12 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>Associato</t>
+          <t>Associato confermato</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>TOMASSONI Daniele</t>
+          <t>TONDI Emanuele</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
@@ -9186,17 +9186,17 @@
       <c r="D268" t="inlineStr"/>
       <c r="E268" t="inlineStr">
         <is>
-          <t>BIO/16</t>
+          <t>GEO/03</t>
         </is>
       </c>
       <c r="F268" t="inlineStr">
         <is>
-          <t>05/H1</t>
+          <t>04/A2</t>
         </is>
       </c>
       <c r="G268" t="inlineStr">
         <is>
-          <t>SCUOLA DI BIOSCIENZE E MEDICINA VETERINARIA</t>
+          <t>SCUOLA DI SCIENZE E TECNOLOGIE</t>
         </is>
       </c>
       <c r="H268" t="inlineStr"/>
@@ -9204,33 +9204,33 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>Associato confermato</t>
+          <t>Ricercatore</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>TONDI Emanuele</t>
+          <t>TORREGIANI Elisabetta</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="D269" t="inlineStr"/>
       <c r="E269" t="inlineStr">
         <is>
-          <t>GEO/03</t>
+          <t>CHIM/06</t>
         </is>
       </c>
       <c r="F269" t="inlineStr">
         <is>
-          <t>04/A2</t>
+          <t>03/C1</t>
         </is>
       </c>
       <c r="G269" t="inlineStr">
         <is>
-          <t>SCUOLA DI SCIENZE E TECNOLOGIE</t>
+          <t>SCUOLA DI SCIENZE DEL FARMACO E DEI PRODOTTI DELLA SALUTE</t>
         </is>
       </c>
       <c r="H269" t="inlineStr"/>
@@ -9238,28 +9238,28 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>Ricercatore</t>
+          <t>Ricercatore a t.d. - t.pieno (art. 24 c.3-a L. 240/10)</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>TORREGIANI Elisabetta</t>
+          <t>TRAINI Enea</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D270" t="inlineStr"/>
       <c r="E270" t="inlineStr">
         <is>
-          <t>CHIM/06</t>
+          <t>BIO/16</t>
         </is>
       </c>
       <c r="F270" t="inlineStr">
         <is>
-          <t>03/C1</t>
+          <t>05/H1</t>
         </is>
       </c>
       <c r="G270" t="inlineStr">
@@ -9272,33 +9272,33 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>Ricercatore a t.d. - t.pieno (art. 24 c.3-a L. 240/10)</t>
+          <t>Ricercatore a t.d. - t.pieno (art. 24 c.3-b L. 240/10)</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>TRAINI Enea</t>
+          <t>TRAPANANTI Angela</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="D271" t="inlineStr"/>
       <c r="E271" t="inlineStr">
         <is>
-          <t>BIO/16</t>
+          <t>FIS/01</t>
         </is>
       </c>
       <c r="F271" t="inlineStr">
         <is>
-          <t>05/H1</t>
+          <t>02/B1</t>
         </is>
       </c>
       <c r="G271" t="inlineStr">
         <is>
-          <t>SCUOLA DI SCIENZE DEL FARMACO E DEI PRODOTTI DELLA SALUTE</t>
+          <t>SCUOLA DI SCIENZE E TECNOLOGIE</t>
         </is>
       </c>
       <c r="H271" t="inlineStr"/>
@@ -9306,17 +9306,17 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>Ricercatore a t.d. - t.pieno (art. 24 c.3-b L. 240/10)</t>
+          <t>Ricercatore a t.d. - t.pieno (art. 24 c.3-a L. 240/10)</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>TRAPANANTI Angela</t>
+          <t>TRAVASSO Flavio</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D272" t="inlineStr"/>
@@ -9327,7 +9327,7 @@
       </c>
       <c r="F272" t="inlineStr">
         <is>
-          <t>02/B1</t>
+          <t>02/A1</t>
         </is>
       </c>
       <c r="G272" t="inlineStr">
@@ -9340,12 +9340,12 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>Ricercatore a t.d. - t.pieno (art. 24 c.3-a L. 240/10)</t>
+          <t>Ricercatore a t.d. - t.pieno (art. 24 c.3-b L. 240/10)</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>TRAVASSO Flavio</t>
+          <t>TROISI Alessandro</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
@@ -9356,17 +9356,17 @@
       <c r="D273" t="inlineStr"/>
       <c r="E273" t="inlineStr">
         <is>
-          <t>FIS/01</t>
+          <t>VET/10</t>
         </is>
       </c>
       <c r="F273" t="inlineStr">
         <is>
-          <t>02/A1</t>
+          <t>07/H5</t>
         </is>
       </c>
       <c r="G273" t="inlineStr">
         <is>
-          <t>SCUOLA DI SCIENZE E TECNOLOGIE</t>
+          <t>SCUOLA DI BIOSCIENZE E MEDICINA VETERINARIA</t>
         </is>
       </c>
       <c r="H273" t="inlineStr"/>
@@ -9374,12 +9374,12 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>Ricercatore a t.d. - t.pieno (art. 24 c.3-b L. 240/10)</t>
+          <t>Associato</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>TROISI Alessandro</t>
+          <t>TRUSIANI Elio</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
@@ -9390,17 +9390,17 @@
       <c r="D274" t="inlineStr"/>
       <c r="E274" t="inlineStr">
         <is>
-          <t>VET/10</t>
+          <t>ICAR/21</t>
         </is>
       </c>
       <c r="F274" t="inlineStr">
         <is>
-          <t>07/H5</t>
+          <t>08/F1</t>
         </is>
       </c>
       <c r="G274" t="inlineStr">
         <is>
-          <t>SCUOLA DI BIOSCIENZE E MEDICINA VETERINARIA</t>
+          <t>SCUOLA DI ARCHITETTURA E DESIGN</t>
         </is>
       </c>
       <c r="H274" t="inlineStr"/>
@@ -9413,7 +9413,7 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>TRUSIANI Elio</t>
+          <t>UBALDI Massimo</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
@@ -9424,17 +9424,17 @@
       <c r="D275" t="inlineStr"/>
       <c r="E275" t="inlineStr">
         <is>
-          <t>ICAR/21</t>
+          <t>BIO/14</t>
         </is>
       </c>
       <c r="F275" t="inlineStr">
         <is>
-          <t>08/F1</t>
+          <t>05/G1</t>
         </is>
       </c>
       <c r="G275" t="inlineStr">
         <is>
-          <t>SCUOLA DI ARCHITETTURA E DESIGN</t>
+          <t>SCUOLA DI SCIENZE DEL FARMACO E DEI PRODOTTI DELLA SALUTE</t>
         </is>
       </c>
       <c r="H275" t="inlineStr"/>
@@ -9442,12 +9442,12 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>Associato</t>
+          <t>Associato confermato</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>UBALDI Massimo</t>
+          <t>VALBONESI Alessandro</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
@@ -9458,17 +9458,17 @@
       <c r="D276" t="inlineStr"/>
       <c r="E276" t="inlineStr">
         <is>
-          <t>BIO/14</t>
+          <t>BIO/05</t>
         </is>
       </c>
       <c r="F276" t="inlineStr">
         <is>
-          <t>05/G1</t>
+          <t>05/B1</t>
         </is>
       </c>
       <c r="G276" t="inlineStr">
         <is>
-          <t>SCUOLA DI SCIENZE DEL FARMACO E DEI PRODOTTI DELLA SALUTE</t>
+          <t>SCUOLA DI BIOSCIENZE E MEDICINA VETERINARIA</t>
         </is>
       </c>
       <c r="H276" t="inlineStr"/>
@@ -9481,12 +9481,12 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>VALBONESI Alessandro</t>
+          <t>VALLESI Adriana</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="D277" t="inlineStr"/>
@@ -9510,33 +9510,33 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>Associato confermato</t>
+          <t>Ordinario</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>VALLESI Adriana</t>
+          <t>VANNICOLA Carlo</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D278" t="inlineStr"/>
       <c r="E278" t="inlineStr">
         <is>
-          <t>BIO/05</t>
+          <t>ICAR/13</t>
         </is>
       </c>
       <c r="F278" t="inlineStr">
         <is>
-          <t>05/B1</t>
+          <t>08/C1</t>
         </is>
       </c>
       <c r="G278" t="inlineStr">
         <is>
-          <t>SCUOLA DI BIOSCIENZE E MEDICINA VETERINARIA</t>
+          <t>SCUOLA DI ARCHITETTURA E DESIGN</t>
         </is>
       </c>
       <c r="H278" t="inlineStr"/>
@@ -9544,33 +9544,33 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>Ordinario</t>
+          <t>Associato confermato</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>VANNICOLA Carlo</t>
+          <t>VINCENZETTI Silvia</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="D279" t="inlineStr"/>
       <c r="E279" t="inlineStr">
         <is>
-          <t>ICAR/13</t>
+          <t>BIO/12</t>
         </is>
       </c>
       <c r="F279" t="inlineStr">
         <is>
-          <t>08/C1</t>
+          <t>05/E3</t>
         </is>
       </c>
       <c r="G279" t="inlineStr">
         <is>
-          <t>SCUOLA DI ARCHITETTURA E DESIGN</t>
+          <t>SCUOLA DI BIOSCIENZE E MEDICINA VETERINARIA</t>
         </is>
       </c>
       <c r="H279" t="inlineStr"/>
@@ -9578,33 +9578,33 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>Associato confermato</t>
+          <t>Ricercatore</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>VINCENZETTI Silvia</t>
+          <t>VINTI Carlo</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D280" t="inlineStr"/>
       <c r="E280" t="inlineStr">
         <is>
-          <t>BIO/12</t>
+          <t>ICAR/13</t>
         </is>
       </c>
       <c r="F280" t="inlineStr">
         <is>
-          <t>05/E3</t>
+          <t>08/C1</t>
         </is>
       </c>
       <c r="G280" t="inlineStr">
         <is>
-          <t>SCUOLA DI BIOSCIENZE E MEDICINA VETERINARIA</t>
+          <t>SCUOLA DI ARCHITETTURA E DESIGN</t>
         </is>
       </c>
       <c r="H280" t="inlineStr"/>
@@ -9612,12 +9612,12 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>Ricercatore</t>
+          <t>Ordinario</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>VINTI Carlo</t>
+          <t>VITALI David</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
@@ -9628,17 +9628,17 @@
       <c r="D281" t="inlineStr"/>
       <c r="E281" t="inlineStr">
         <is>
-          <t>ICAR/13</t>
+          <t>FIS/02</t>
         </is>
       </c>
       <c r="F281" t="inlineStr">
         <is>
-          <t>08/C1</t>
+          <t>02/A2</t>
         </is>
       </c>
       <c r="G281" t="inlineStr">
         <is>
-          <t>SCUOLA DI ARCHITETTURA E DESIGN</t>
+          <t>SCUOLA DI SCIENZE E TECNOLOGIE</t>
         </is>
       </c>
       <c r="H281" t="inlineStr"/>
@@ -9646,12 +9646,12 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>Ordinario</t>
+          <t>Associato</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>VITALI David</t>
+          <t>VITALI Luca Agostino</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
@@ -9662,17 +9662,17 @@
       <c r="D282" t="inlineStr"/>
       <c r="E282" t="inlineStr">
         <is>
-          <t>FIS/02</t>
+          <t>MED/07</t>
         </is>
       </c>
       <c r="F282" t="inlineStr">
         <is>
-          <t>02/A2</t>
+          <t>06/A3</t>
         </is>
       </c>
       <c r="G282" t="inlineStr">
         <is>
-          <t>SCUOLA DI SCIENZE E TECNOLOGIE</t>
+          <t>SCUOLA DI SCIENZE DEL FARMACO E DEI PRODOTTI DELLA SALUTE</t>
         </is>
       </c>
       <c r="H282" t="inlineStr"/>
@@ -9680,33 +9680,33 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>Associato</t>
+          <t>Ricercatore</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>VITALI Luca Agostino</t>
+          <t>VITARELLI Susanna</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="D283" t="inlineStr"/>
       <c r="E283" t="inlineStr">
         <is>
-          <t>MED/07</t>
+          <t>MED/42</t>
         </is>
       </c>
       <c r="F283" t="inlineStr">
         <is>
-          <t>06/A3</t>
+          <t>06/M1</t>
         </is>
       </c>
       <c r="G283" t="inlineStr">
         <is>
-          <t>SCUOLA DI SCIENZE DEL FARMACO E DEI PRODOTTI DELLA SALUTE</t>
+          <t>SCUOLA DI BIOSCIENZE E MEDICINA VETERINARIA</t>
         </is>
       </c>
       <c r="H283" t="inlineStr"/>
@@ -9714,12 +9714,12 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>Ricercatore</t>
+          <t>Ordinario</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>VITARELLI Susanna</t>
+          <t>VITTADINI Elena Giovanna Piera</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
@@ -9730,12 +9730,12 @@
       <c r="D284" t="inlineStr"/>
       <c r="E284" t="inlineStr">
         <is>
-          <t>MED/42</t>
+          <t>AGR/15</t>
         </is>
       </c>
       <c r="F284" t="inlineStr">
         <is>
-          <t>06/M1</t>
+          <t>07/F1</t>
         </is>
       </c>
       <c r="G284" t="inlineStr">
@@ -9753,28 +9753,28 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>VITTADINI Elena Giovanna Piera</t>
+          <t>VITTORI Sauro</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D285" t="inlineStr"/>
       <c r="E285" t="inlineStr">
         <is>
-          <t>AGR/15</t>
+          <t>CHIM/08</t>
         </is>
       </c>
       <c r="F285" t="inlineStr">
         <is>
-          <t>07/F1</t>
+          <t>03/D1</t>
         </is>
       </c>
       <c r="G285" t="inlineStr">
         <is>
-          <t>SCUOLA DI BIOSCIENZE E MEDICINA VETERINARIA</t>
+          <t>SCUOLA DI SCIENZE DEL FARMACO E DEI PRODOTTI DELLA SALUTE</t>
         </is>
       </c>
       <c r="H285" t="inlineStr"/>
@@ -9787,12 +9787,12 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>VITTORI Sauro</t>
+          <t>VOLPINI Rosaria</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="D286" t="inlineStr"/>
@@ -9816,33 +9816,33 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>Ordinario</t>
+          <t>Ricercatore a t.d. - t.pieno (art. 24 c.3-a L. 240/10)</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>VOLPINI Rosaria</t>
+          <t>ZAMBRANO CARDENAS Miller Del Carmen</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D287" t="inlineStr"/>
       <c r="E287" t="inlineStr">
         <is>
-          <t>CHIM/08</t>
+          <t>GEO/03</t>
         </is>
       </c>
       <c r="F287" t="inlineStr">
         <is>
-          <t>03/D1</t>
+          <t>04/A2</t>
         </is>
       </c>
       <c r="G287" t="inlineStr">
         <is>
-          <t>SCUOLA DI SCIENZE DEL FARMACO E DEI PRODOTTI DELLA SALUTE</t>
+          <t>SCUOLA DI SCIENZE E TECNOLOGIE</t>
         </is>
       </c>
       <c r="H287" t="inlineStr"/>
@@ -9850,28 +9850,28 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>Ricercatore a t.d. - t.pieno (art. 24 c.3-a L. 240/10)</t>
+          <t>Associato confermato</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>ZAMBRANO CARDENAS Miller Del Carmen</t>
+          <t>ZAMPONI Silvia</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="D288" t="inlineStr"/>
       <c r="E288" t="inlineStr">
         <is>
-          <t>GEO/03</t>
+          <t>CHIM/01</t>
         </is>
       </c>
       <c r="F288" t="inlineStr">
         <is>
-          <t>04/A2</t>
+          <t>03/A1</t>
         </is>
       </c>
       <c r="G288" t="inlineStr">
@@ -9884,28 +9884,28 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>Associato confermato</t>
+          <t>Ricercatore</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>ZAMPONI Silvia</t>
+          <t>ZOLI Marco</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D289" t="inlineStr"/>
       <c r="E289" t="inlineStr">
         <is>
-          <t>CHIM/01</t>
+          <t>FIS/03</t>
         </is>
       </c>
       <c r="F289" t="inlineStr">
         <is>
-          <t>03/A1</t>
+          <t>02/B2</t>
         </is>
       </c>
       <c r="G289" t="inlineStr">
@@ -9918,12 +9918,12 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>Ricercatore</t>
+          <t>Associato</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>ZOLI Marco</t>
+          <t>ZONA Alessandro</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
@@ -9934,54 +9934,20 @@
       <c r="D290" t="inlineStr"/>
       <c r="E290" t="inlineStr">
         <is>
-          <t>FIS/03</t>
+          <t>ICAR/09</t>
         </is>
       </c>
       <c r="F290" t="inlineStr">
         <is>
-          <t>02/B2</t>
+          <t>08/B3</t>
         </is>
       </c>
       <c r="G290" t="inlineStr">
         <is>
-          <t>SCUOLA DI SCIENZE E TECNOLOGIE</t>
+          <t>SCUOLA DI ARCHITETTURA E DESIGN</t>
         </is>
       </c>
       <c r="H290" t="inlineStr"/>
-    </row>
-    <row r="291">
-      <c r="A291" t="inlineStr">
-        <is>
-          <t>Associato</t>
-        </is>
-      </c>
-      <c r="B291" t="inlineStr">
-        <is>
-          <t>ZONA Alessandro</t>
-        </is>
-      </c>
-      <c r="C291" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="D291" t="inlineStr"/>
-      <c r="E291" t="inlineStr">
-        <is>
-          <t>ICAR/09</t>
-        </is>
-      </c>
-      <c r="F291" t="inlineStr">
-        <is>
-          <t>08/B3</t>
-        </is>
-      </c>
-      <c r="G291" t="inlineStr">
-        <is>
-          <t>SCUOLA DI ARCHITETTURA E DESIGN</t>
-        </is>
-      </c>
-      <c r="H291" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
